--- a/Total_All_Test_Result__bitget.xlsx
+++ b/Total_All_Test_Result__bitget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -46,72 +46,72 @@
     <t>OT_DOGEUSDT_PTA8_OBBY_4_0.5</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_15m_PTA2_LISICA_7_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCrVG_10_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_BORSCH_10_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET2s_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA2_DDCrWork_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDDCr_5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_LTA_APHOBO_10_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET2_5_20</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_30m_PTA10_MAGIC_95_20_4</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCrVG_10_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_BORSCH_10_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA2_LISICA_7_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET2s_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA2_DDCrWork_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET2_5_20</t>
+    <t>OT_DOGEUSDT_PTA4_WDVCr_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET3s_20_20_0.03</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_APHOGA_10_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET3_20_20_0.03</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCde_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA9_CRAB</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_LISICA_7_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STA1_LITE_10_2_0.5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_WDOBBY_FREEr_7_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCrE_10_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET3_20_20_0.05</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_5m_PTA4_WDDCr_10_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_PTA4_WDVCr_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET3s_20_20_0.03</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDDCr_5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_APHOGA_10_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET3_20_20_0.03</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DDCde_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA9_CRAB</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_LISICA_7_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STA1_LITE_10_2_0.5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_WDOBBY_FREEr_7_0.5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCrE_10_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET3_20_20_0.05</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_LTA_APHOBO_10_1</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_PTA4_WDDCr_5_30</t>
   </si>
   <si>
@@ -124,306 +124,312 @@
     <t>OT_DOGEUSDT_PTA2_DDCrVG_15</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR5_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBSTER</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STA1_LITE_30_1_0.5_15</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STA1_LITE_60_1_0.5_15</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_LTA_MISO_52_9_26_52_14_12_26_9</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBSTER_15_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_BDDCde_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_PTA4_WDDCr_30_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCrVG_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCrVG_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA6_KAMA2_5_5_21_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WLISICA_7_2_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_FREE_15_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_APHOGA_15_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCde_50_40</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR7_60_5</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_1m_LTA_BORSCH_10_3</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR5_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBSTER</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STA1_LITE_30_1_0.5_15</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STA1_LITE_60_1_0.5_15</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBSTER_15_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_BDDCde_5</t>
+    <t>OT_DOGEUSDT_STAML1_AXGBR2_100_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_LAKSA_20_6</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCr_15_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_PHOGA_4_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_VOLCHARA_7_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_WDOBBY_FREEr_8_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_LAKSAe_15_6</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR2e_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA2_DDCde_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_OGTA3_Rails_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_BDDC_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBSTER_5_0.5</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_5m_PTA4_WDDCrVG_10_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_PTA2_DDCrVG_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DDCrVG_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA6_KAMA2_5_5_21_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WLISICA_7_2_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_FREE_15_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_APHOGA_15_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCde_50_40</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR7_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_AXGBR2_100_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_LAKSA_20_6</t>
+    <t>OT_DOGEUSDT_PTA2_BDDCr_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_BORSCH_3_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_UDC_30_40</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCr_11_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_WDOBBY_FREEr_15_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_LISICA_20_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCde_15</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_7_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_KOLOBOK_7_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBSTER_10_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_FOBBY_10_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDDCrE_10_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_BORSCH_10_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBBY_10_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDVCr_9</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_AUDC_15_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR2_DC_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DVCr_4</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_APHOBO_10_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_VOR_10_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_BDVCr</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR2_100_5</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_15m_PTA8_OBBY_4_0.5</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_PTA8_OOBBY_55_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_LAKSA_10_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_LOBSTER_3_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_AUDC_15_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA8_WDOBBY_FREEr_8_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_FREEr_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR4_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCde_20_40</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_AUDC_30_40</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_UDC_15_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR8_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_PHOGA_15_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBSTER_7_0.5</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_5m_LTA_BORSCH_3_3</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDVCr_9</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCr_15_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_PHOGA_4_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_VOLCHARA_7_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_WDOBBY_FREEr_8_0.5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_LAKSAe_15_6</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR2e_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_OGTA3_Rails_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_BDDC_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBSTER_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_BDDCr_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_BORSCH_3_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_UDC_30_40</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA2_DDCde_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCr_11_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_WDOBBY_FREEr_15_0.5_30</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_5m_PTA4_WDVCr_10</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_5m_PTA4_WDDCrE_10_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_FREEr_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA8_WDOBBY_FREEr_8_0.5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_LOBSTER_3_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_LISICA_20_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DDCde_15</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_KOLOBOK_7_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBSTER_10_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_FOBBY_10_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_BORSCH_10_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBBY_10_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_AUDC_15_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR2_DC_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DVCr_4</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_APHOBO_10_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_VOR_10_1</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_15m_PTA9_CRAB_10_0.5_5_0.5</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_PTA2_BDVCr</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_15m_PTA4_WDDCde_20_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR2_100_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OOBBY_55_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_LAKSA_10_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_AUDC_15_20</t>
+    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_ZAYAC_3_1.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2he_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBBY</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_30m_PTA4_WDDCr_4_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR4_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCde_20_40</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_AUDC_30_40</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_UDC_15_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR8_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_PHOGA_15_1</t>
+    <t>OT_DOGEUSDT_PTA6_KAMAZ2_5_20_21_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCde_20_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCde</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCde_30_40</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_FOBBY</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR4_100_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_VOLCHARA_3_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_KOLOBOK_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA6_KAMA_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_FREE_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA8_OBBY_FREEr_7_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_PHOBO_3_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DCh_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_STAML1_XGBR2h_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2e_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1s_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_AUDC_3_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_VOLCHARA_20_1.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDDCrVG_9_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA6_KAMAZ2_5_20_21_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OOBBY_FREEr_20_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_TOMYAM_50</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_30m_PTA8_WDOBBY_FREEr_4_0.5_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_PTA8_LOBSTER_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_ZAYAC_3_1.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2he_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBBY</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDDCrVG_9_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA6_KAMAZ2_5_20_21_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCde_20_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DDCde</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCde_30_40</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_FOBBY</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR4_100_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_VOLCHARA_3_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_KOLOBOK_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA6_KAMA_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_FREE_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA8_OBBY_FREEr_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_PHOBO_3_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DCh_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_STAML1_XGBR2h_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2e_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1s_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_AUDC_3_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_VOLCHARA_20_1.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA6_KAMAZ2_5_20_21_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OOBBY_FREEr_20_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_TOMYAM_50</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_PTA2_DDCrVG_10</t>
   </si>
   <si>
@@ -466,159 +472,162 @@
     <t>OT_DOGEUSDT_PTA2_ALKASH_40</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_PTA2_BDDCm_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_ZAYAC_7_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr_5_2.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2s_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_5_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3s_20_20_0.03</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_LAKSA_7_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_UDC</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA10_MAGIC_95_20_4</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_FREE_5_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCrWork_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBSTER_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_LISICA_3_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WLISICA_7_2_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_ZAYAC_40_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_LAKSA_40_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA6_KAMAZ2_5_20_21_50</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA4_WDDCr_10_40</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_RAMEN_100_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_VOR_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR2h_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_KOLOBOK</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA8_LOBSTER_7_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DVCr_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_APHOBO_15_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DVCr_15</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA9_RAB_10_2_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET1_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_ZAYAC_3_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR2_DCh_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_50_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA2_DDCrVG_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_LOBBY_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR2he_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET1_60_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_FREE_15_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR4_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_BDVCr_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_VOLCHARA_3_1.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_PROPHET1s_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_UDC_15_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCrWork_5</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_15m_LTA_RAMEN_50_3</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_PTA2_BDDCm_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_ZAYAC_7_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr_5_2.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2s_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_5_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WLISICA_7_2_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3s_20_20_0.03</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_LAKSA_7_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_UDC</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA10_MAGIC_95_20_4</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_FREE_5_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DDCrWork_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBSTER_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_LISICA_3_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_ZAYAC_40_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_LAKSA_40_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA6_KAMAZ2_5_20_21_50</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA4_WDDCr_10_40</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_RAMEN_100_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA8_LOBSTER_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_VOR_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR2h_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_KOLOBOK</t>
+    <t>OT_DOGEUSDT_STAML1_XGBR6_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA2_DVCr_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr_15_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR8_100_5</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_5m_LTA_TOMYAM_50</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_5m_PTA2_DDCrVG_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DVCr_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_APHOBO_15_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DVCr_15</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET1_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_ZAYAC_3_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR2_DCh_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_50_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_LOBBY_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR2he_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET1_60_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_FREE_15_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR4_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_BDVCr_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA9_RAB_10_2_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_VOLCHARA_3_1.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_PROPHET1s_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA2_DVCr_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_UDC_15_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DDCrWork_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR6_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr_15_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_DOBBY_FREEr_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR8_100_5</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_PTA8_OBBY_5_0.5</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_5m_LTA_APHOGA_10_1</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_PTA6_KAMA_5_20</t>
   </si>
   <si>
@@ -634,67 +643,64 @@
     <t>OT_DOGEUSDT_STAML1_AXGBR2_60_5</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_PTA2_KOLOBOK_3_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR7_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_LAKSAe_40_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA9_CRAB_10_0.5_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_BDVCr_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_DDCde_4</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR5_100_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA9_RAB_10_2_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_PHOBO_15_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_UDC_15_40</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_LTA_RAMEN_50_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR5_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_10_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR2_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_STAML1_XGBR8_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_FREE_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA8_OBBY_5_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_PTA2_BDDCde_10</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_30m_PTA6_KAMA2_5_5_21_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_KOLOBOK_3_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_LTA_APHOGA_10_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR7_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_LAKSAe_40_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA9_CRAB_10_0.5_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_BDVCr_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_DDCde_4</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR5_100_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA9_RAB_10_2_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_PHOBO_15_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_UDC_15_40</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_LTA_RAMEN_50_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_FREEr_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR5_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_10_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR2_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_STAML1_XGBR8_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_FREE_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA8_OBBY_5_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_PTA2_BDDCde_10</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_PTA8_DOBBY_5_1</t>
@@ -1105,13 +1111,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="6" width="21.7109375" customWidth="1"/>
@@ -1228,22 +1234,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.015119999999999</v>
+        <v>0.016509999999999</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>8.938700610876566</v>
+        <v>10.11723470300966</v>
       </c>
       <c r="F5">
-        <v>7.978700610876565</v>
+        <v>8.357234703009661</v>
       </c>
       <c r="G5">
-        <v>7.018700610876564</v>
+        <v>6.597234703009663</v>
       </c>
       <c r="H5">
-        <v>6.058700610876564</v>
+        <v>4.837234703009662</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1306,22 +1312,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.0123</v>
+        <v>0.020309999999999</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>7.649931838164918</v>
+        <v>10.29233800359681</v>
       </c>
       <c r="F8">
-        <v>6.369931838164917</v>
+        <v>7.572338003596814</v>
       </c>
       <c r="G8">
-        <v>5.089931838164919</v>
+        <v>4.852338003596815</v>
       </c>
       <c r="H8">
-        <v>3.809931838164918</v>
+        <v>2.132338003596816</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1332,22 +1338,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.020309999999999</v>
+        <v>0.01336</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>10.29233800359681</v>
+        <v>8.455152021485867</v>
       </c>
       <c r="F9">
-        <v>7.572338003596814</v>
+        <v>6.455152021485866</v>
       </c>
       <c r="G9">
-        <v>4.852338003596815</v>
+        <v>4.455152021485868</v>
       </c>
       <c r="H9">
-        <v>2.132338003596816</v>
+        <v>2.455152021485866</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1358,22 +1364,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.012120000000001</v>
+        <v>0.01098</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10">
-        <v>7.728738493010847</v>
+        <v>6.731643563883528</v>
       </c>
       <c r="F10">
-        <v>6.208738493010846</v>
+        <v>5.21164356388353</v>
       </c>
       <c r="G10">
-        <v>4.688738493010848</v>
+        <v>3.69164356388353</v>
       </c>
       <c r="H10">
-        <v>3.168738493010845</v>
+        <v>2.17164356388353</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1384,22 +1390,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.015640000000001</v>
+        <v>0.012699999999999</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>7.847263089054166</v>
+        <v>7.681652805652458</v>
       </c>
       <c r="F11">
-        <v>5.607263089054164</v>
+        <v>5.681652805652458</v>
       </c>
       <c r="G11">
-        <v>3.367263089054168</v>
+        <v>3.68165280565246</v>
       </c>
       <c r="H11">
-        <v>1.127263089054167</v>
+        <v>1.681652805652459</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1410,22 +1416,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.0092</v>
+        <v>0.015640000000001</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>5.603990113133992</v>
+        <v>7.847263089054166</v>
       </c>
       <c r="F12">
-        <v>4.403990113133993</v>
+        <v>5.607263089054164</v>
       </c>
       <c r="G12">
-        <v>3.203990113133993</v>
+        <v>3.367263089054168</v>
       </c>
       <c r="H12">
-        <v>2.003990113133993</v>
+        <v>1.127263089054167</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1436,22 +1442,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.012749999999998</v>
+        <v>0.014969999999999</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>6.52781269115483</v>
+        <v>8.851223027007432</v>
       </c>
       <c r="F13">
-        <v>4.76781269115483</v>
+        <v>5.971223027007431</v>
       </c>
       <c r="G13">
-        <v>3.00781269115483</v>
+        <v>3.091223027007431</v>
       </c>
       <c r="H13">
-        <v>1.24781269115483</v>
+        <v>0.2112230270074313</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1462,22 +1468,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.008189999999999</v>
+        <v>0.012749999999998</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>4.26201782345619</v>
+        <v>6.52781269115483</v>
       </c>
       <c r="F14">
-        <v>3.622017823456189</v>
+        <v>4.76781269115483</v>
       </c>
       <c r="G14">
-        <v>2.982017823456189</v>
+        <v>3.00781269115483</v>
       </c>
       <c r="H14">
-        <v>2.342017823456189</v>
+        <v>1.24781269115483</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1488,22 +1494,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.009819999999999999</v>
+        <v>0.008189999999999</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>6.129093384575062</v>
+        <v>4.26201782345619</v>
       </c>
       <c r="F15">
-        <v>4.289093384575062</v>
+        <v>3.622017823456189</v>
       </c>
       <c r="G15">
-        <v>2.449093384575063</v>
+        <v>2.982017823456189</v>
       </c>
       <c r="H15">
-        <v>0.6090933845750621</v>
+        <v>2.342017823456189</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1514,22 +1520,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.00741</v>
+        <v>0.025579999999998</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E16">
-        <v>4.642800443608293</v>
+        <v>13.46304584901185</v>
       </c>
       <c r="F16">
-        <v>3.522800443608294</v>
+        <v>7.863045849011854</v>
       </c>
       <c r="G16">
-        <v>2.402800443608294</v>
+        <v>2.263045849011856</v>
       </c>
       <c r="H16">
-        <v>1.282800443608294</v>
+        <v>-3.336954150988143</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1540,22 +1546,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.025579999999998</v>
+        <v>0.005939999999999001</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>13.46304584901185</v>
+        <v>3.093239830235811</v>
       </c>
       <c r="F17">
-        <v>7.863045849011854</v>
+        <v>2.613239830235811</v>
       </c>
       <c r="G17">
-        <v>2.263045849011856</v>
+        <v>2.133239830235812</v>
       </c>
       <c r="H17">
-        <v>-3.336954150988143</v>
+        <v>1.653239830235811</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1566,22 +1572,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>0.005939999999999001</v>
+        <v>0.011519999999999</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3.093239830235811</v>
+        <v>5.761023611991903</v>
       </c>
       <c r="F18">
-        <v>2.613239830235811</v>
+        <v>3.921023611991902</v>
       </c>
       <c r="G18">
-        <v>2.133239830235812</v>
+        <v>2.081023611991904</v>
       </c>
       <c r="H18">
-        <v>1.653239830235811</v>
+        <v>0.2410236119919034</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1592,22 +1598,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>0.011519999999999</v>
+        <v>0.007221823154079001</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>5.761023611991903</v>
+        <v>3.725786182489264</v>
       </c>
       <c r="F19">
-        <v>3.921023611991902</v>
+        <v>2.845786182489264</v>
       </c>
       <c r="G19">
-        <v>2.081023611991904</v>
+        <v>1.965786182489264</v>
       </c>
       <c r="H19">
-        <v>0.2410236119919034</v>
+        <v>1.085786182489264</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1618,22 +1624,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>0.007221823154079001</v>
+        <v>0.018729999999996</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E20">
-        <v>3.725786182489264</v>
+        <v>9.500969810796697</v>
       </c>
       <c r="F20">
-        <v>2.845786182489264</v>
+        <v>5.580969810796699</v>
       </c>
       <c r="G20">
-        <v>1.965786182489264</v>
+        <v>1.6609698107967</v>
       </c>
       <c r="H20">
-        <v>1.085786182489264</v>
+        <v>-2.2590301892033</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1644,22 +1650,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.018729999999996</v>
+        <v>0.005310000000001001</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>9.500969810796697</v>
+        <v>2.588378549587846</v>
       </c>
       <c r="F21">
-        <v>5.580969810796699</v>
+        <v>1.948378549587845</v>
       </c>
       <c r="G21">
-        <v>1.6609698107967</v>
+        <v>1.308378549587846</v>
       </c>
       <c r="H21">
-        <v>-2.2590301892033</v>
+        <v>0.668378549587846</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1670,22 +1676,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.005310000000001001</v>
+        <v>0.009839999999998</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>2.588378549587846</v>
+        <v>5.056588324427116</v>
       </c>
       <c r="F22">
-        <v>1.948378549587845</v>
+        <v>3.056588324427116</v>
       </c>
       <c r="G22">
-        <v>1.308378549587846</v>
+        <v>1.056588324427116</v>
       </c>
       <c r="H22">
-        <v>0.668378549587846</v>
+        <v>-0.9434116755728839</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1696,22 +1702,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.009839999999998</v>
+        <v>0.008549999999998</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>5.056588324427116</v>
+        <v>4.389878660181712</v>
       </c>
       <c r="F23">
-        <v>3.056588324427116</v>
+        <v>2.709878660181712</v>
       </c>
       <c r="G23">
-        <v>1.056588324427116</v>
+        <v>1.029878660181712</v>
       </c>
       <c r="H23">
-        <v>-0.9434116755728839</v>
+        <v>-0.6501213398182886</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1722,22 +1728,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>0.008549999999998</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>4.389878660181712</v>
+        <v>5.327923793931786</v>
       </c>
       <c r="F24">
-        <v>2.709878660181712</v>
+        <v>3.167923793931787</v>
       </c>
       <c r="G24">
-        <v>1.029878660181712</v>
+        <v>1.007923793931788</v>
       </c>
       <c r="H24">
-        <v>-0.6501213398182886</v>
+        <v>-1.152076206068212</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1774,22 +1780,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.006479999999999</v>
+        <v>0.006230000000001</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>4.03405814607508</v>
+        <v>3.871571921771391</v>
       </c>
       <c r="F26">
-        <v>2.514058146075079</v>
+        <v>2.431571921771391</v>
       </c>
       <c r="G26">
-        <v>0.9940581460750798</v>
+        <v>0.9915719217713899</v>
       </c>
       <c r="H26">
-        <v>-0.5259418539249199</v>
+        <v>-0.4484280782286092</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1904,22 +1910,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>0.010410000000001</v>
+        <v>0.007549999999999</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>6.457378863657075</v>
+        <v>4.91100873716363</v>
       </c>
       <c r="F31">
-        <v>3.097378863657075</v>
+        <v>2.271008737163631</v>
       </c>
       <c r="G31">
-        <v>-0.2626211363429229</v>
+        <v>-0.368991262836369</v>
       </c>
       <c r="H31">
-        <v>-3.622621136342925</v>
+        <v>-3.008991262836368</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1930,22 +1936,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.007549999999999</v>
+        <v>0.0007985737448390001</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>4.91100873716363</v>
+        <v>0.3990996029199479</v>
       </c>
       <c r="F32">
-        <v>2.271008737163631</v>
+        <v>-0.160900397080052</v>
       </c>
       <c r="G32">
-        <v>-0.368991262836369</v>
+        <v>-0.7209003970800519</v>
       </c>
       <c r="H32">
-        <v>-3.008991262836368</v>
+        <v>-1.280900397080052</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1956,22 +1962,22 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>0.0007985737448390001</v>
+        <v>0.0007450000000000001</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
       <c r="E33">
-        <v>0.3990996029199479</v>
+        <v>0.3619328533009458</v>
       </c>
       <c r="F33">
-        <v>-0.160900397080052</v>
+        <v>-0.1980671466990542</v>
       </c>
       <c r="G33">
-        <v>-0.7209003970800519</v>
+        <v>-0.7580671466990542</v>
       </c>
       <c r="H33">
-        <v>-1.280900397080052</v>
+        <v>-1.318067146699054</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1982,22 +1988,22 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>0.0007450000000000001</v>
+        <v>-0.00096</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>0.3619328533009458</v>
+        <v>-0.4642222464004653</v>
       </c>
       <c r="F34">
-        <v>-0.1980671466990542</v>
+        <v>-0.6242222464004654</v>
       </c>
       <c r="G34">
-        <v>-0.7580671466990542</v>
+        <v>-0.7842222464004653</v>
       </c>
       <c r="H34">
-        <v>-1.318067146699054</v>
+        <v>-0.9442222464004653</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2008,22 +2014,22 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>-0.00096</v>
+        <v>-0.00117</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35">
-        <v>-0.4642222464004653</v>
+        <v>-0.6902451255125217</v>
       </c>
       <c r="F35">
-        <v>-0.6242222464004654</v>
+        <v>-0.8502451255125217</v>
       </c>
       <c r="G35">
-        <v>-0.7842222464004653</v>
+        <v>-1.010245125512522</v>
       </c>
       <c r="H35">
-        <v>-0.9442222464004653</v>
+        <v>-1.170245125512521</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2086,22 +2092,22 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>0.00196</v>
+        <v>-0.001609999999999</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>1.177233460193072</v>
+        <v>-0.9380507770958297</v>
       </c>
       <c r="F38">
-        <v>-0.1827665398069277</v>
+        <v>-1.25805077709583</v>
       </c>
       <c r="G38">
-        <v>-1.542766539806927</v>
+        <v>-1.57805077709583</v>
       </c>
       <c r="H38">
-        <v>-2.902766539806928</v>
+        <v>-1.898050777095829</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2320,22 +2326,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>-0.002159999999999</v>
+        <v>0.010800000000001</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E47">
-        <v>-1.060534768109818</v>
+        <v>6.685175557684541</v>
       </c>
       <c r="F47">
-        <v>-2.020534768109818</v>
+        <v>1.965175557684541</v>
       </c>
       <c r="G47">
-        <v>-2.980534768109817</v>
+        <v>-2.754824442315456</v>
       </c>
       <c r="H47">
-        <v>-3.940534768109817</v>
+        <v>-7.474824442315459</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2346,22 +2352,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>0.0004700000000000001</v>
+        <v>-0.002159999999999</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>0.2242712807175358</v>
+        <v>-1.060534768109818</v>
       </c>
       <c r="F48">
-        <v>-1.455728719282464</v>
+        <v>-2.020534768109818</v>
       </c>
       <c r="G48">
-        <v>-3.135728719282464</v>
+        <v>-2.980534768109817</v>
       </c>
       <c r="H48">
-        <v>-4.815728719282464</v>
+        <v>-3.940534768109817</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2372,22 +2378,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>0.002880000000001002</v>
+        <v>0.0004700000000000001</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E49">
-        <v>1.484550737495311</v>
+        <v>0.2242712807175358</v>
       </c>
       <c r="F49">
-        <v>-0.8354492625046896</v>
+        <v>-1.455728719282464</v>
       </c>
       <c r="G49">
-        <v>-3.155449262504689</v>
+        <v>-3.135728719282464</v>
       </c>
       <c r="H49">
-        <v>-5.475449262504689</v>
+        <v>-4.815728719282464</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2398,22 +2404,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>0.001550000000001</v>
+        <v>-0.003359999999999</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>0.9910866872065743</v>
+        <v>-1.741230365813326</v>
       </c>
       <c r="F50">
-        <v>-1.088913312793425</v>
+        <v>-2.541230365813326</v>
       </c>
       <c r="G50">
-        <v>-3.168913312793426</v>
+        <v>-3.341230365813325</v>
       </c>
       <c r="H50">
-        <v>-5.248913312793426</v>
+        <v>-4.141230365813326</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2424,22 +2430,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>-0.003660000000001001</v>
+        <v>-0.00306</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>-1.913230774146499</v>
+        <v>-1.593425580965997</v>
       </c>
       <c r="F51">
-        <v>-2.553230774146499</v>
+        <v>-2.473425580965996</v>
       </c>
       <c r="G51">
-        <v>-3.1932307741465</v>
+        <v>-3.353425580965996</v>
       </c>
       <c r="H51">
-        <v>-3.833230774146498</v>
+        <v>-4.233425580965996</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2450,22 +2456,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>-0.003359999999999</v>
+        <v>0.0002599999999990002</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>-1.741230365813326</v>
+        <v>0.1379368316592413</v>
       </c>
       <c r="F52">
-        <v>-2.541230365813326</v>
+        <v>-1.622063168340759</v>
       </c>
       <c r="G52">
-        <v>-3.341230365813325</v>
+        <v>-3.382063168340758</v>
       </c>
       <c r="H52">
-        <v>-4.141230365813326</v>
+        <v>-5.142063168340758</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2476,22 +2482,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>-0.00306</v>
+        <v>0.00659</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E53">
-        <v>-1.593425580965997</v>
+        <v>3.654526503383424</v>
       </c>
       <c r="F53">
-        <v>-2.473425580965996</v>
+        <v>0.1345265033834239</v>
       </c>
       <c r="G53">
-        <v>-3.353425580965996</v>
+        <v>-3.385473496616576</v>
       </c>
       <c r="H53">
-        <v>-4.233425580965996</v>
+        <v>-6.905473496616575</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2502,22 +2508,22 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>0.0002599999999990002</v>
+        <v>0.001160000000001001</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>0.1379368316592413</v>
+        <v>0.6020893328726065</v>
       </c>
       <c r="F54">
-        <v>-1.622063168340759</v>
+        <v>-1.397910667127394</v>
       </c>
       <c r="G54">
-        <v>-3.382063168340758</v>
+        <v>-3.397910667127394</v>
       </c>
       <c r="H54">
-        <v>-5.142063168340758</v>
+        <v>-5.397910667127393</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2528,22 +2534,22 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0.00659</v>
+        <v>0.007629999999999001</v>
       </c>
       <c r="D55">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>3.654526503383424</v>
+        <v>3.800986818168183</v>
       </c>
       <c r="F55">
-        <v>0.1345265033834239</v>
+        <v>0.2009868181681828</v>
       </c>
       <c r="G55">
-        <v>-3.385473496616576</v>
+        <v>-3.399013181831817</v>
       </c>
       <c r="H55">
-        <v>-6.905473496616575</v>
+        <v>-6.999013181831815</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2554,22 +2560,22 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>0.001160000000001001</v>
+        <v>0.0005799999999990015</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0.6020893328726065</v>
+        <v>0.6839739909946596</v>
       </c>
       <c r="F56">
-        <v>-1.397910667127394</v>
+        <v>-1.396026009005341</v>
       </c>
       <c r="G56">
-        <v>-3.397910667127394</v>
+        <v>-3.476026009005341</v>
       </c>
       <c r="H56">
-        <v>-5.397910667127393</v>
+        <v>-5.55602600900534</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2580,22 +2586,22 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>0.007629999999999001</v>
+        <v>-0.001309999999999</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>3.800986818168183</v>
+        <v>-0.653129032858849</v>
       </c>
       <c r="F57">
-        <v>0.2009868181681828</v>
+        <v>-2.173129032858849</v>
       </c>
       <c r="G57">
-        <v>-3.399013181831817</v>
+        <v>-3.693129032858848</v>
       </c>
       <c r="H57">
-        <v>-6.999013181831815</v>
+        <v>-5.213129032858848</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2606,22 +2612,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>-0.001309999999999</v>
+        <v>-0.005309999999999</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>-0.653129032858849</v>
+        <v>-2.606098424561479</v>
       </c>
       <c r="F58">
-        <v>-2.173129032858849</v>
+        <v>-3.166098424561479</v>
       </c>
       <c r="G58">
-        <v>-3.693129032858848</v>
+        <v>-3.726098424561478</v>
       </c>
       <c r="H58">
-        <v>-5.213129032858848</v>
+        <v>-4.286098424561479</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2632,22 +2638,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>-0.005309999999999</v>
+        <v>-0.004389999999999001</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>-2.606098424561479</v>
+        <v>-2.286339253163377</v>
       </c>
       <c r="F59">
-        <v>-3.166098424561479</v>
+        <v>-3.006339253163377</v>
       </c>
       <c r="G59">
-        <v>-3.726098424561478</v>
+        <v>-3.726339253163377</v>
       </c>
       <c r="H59">
-        <v>-4.286098424561479</v>
+        <v>-4.446339253163377</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2658,22 +2664,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>-0.004389999999999001</v>
+        <v>-0.0008199999999999998</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E60">
-        <v>-2.286339253163377</v>
+        <v>-0.4473812051684477</v>
       </c>
       <c r="F60">
-        <v>-3.006339253163377</v>
+        <v>-2.127381205168448</v>
       </c>
       <c r="G60">
-        <v>-3.726339253163377</v>
+        <v>-3.807381205168448</v>
       </c>
       <c r="H60">
-        <v>-4.446339253163377</v>
+        <v>-5.487381205168448</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2762,22 +2768,22 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>-0.002359999999999999</v>
+        <v>-0.00141</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E64">
-        <v>-1.036217043825459</v>
+        <v>-0.7661336332665006</v>
       </c>
       <c r="F64">
-        <v>-2.476217043825461</v>
+        <v>-2.366133633266501</v>
       </c>
       <c r="G64">
-        <v>-3.91621704382546</v>
+        <v>-3.966133633266501</v>
       </c>
       <c r="H64">
-        <v>-5.356217043825459</v>
+        <v>-5.5661336332665</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2788,22 +2794,22 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>-0.00141</v>
+        <v>-0.004729999999999001</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>-0.7661336332665006</v>
+        <v>-2.457217318273194</v>
       </c>
       <c r="F65">
-        <v>-2.366133633266501</v>
+        <v>-3.417217318273194</v>
       </c>
       <c r="G65">
-        <v>-3.966133633266501</v>
+        <v>-4.377217318273193</v>
       </c>
       <c r="H65">
-        <v>-5.5661336332665</v>
+        <v>-5.337217318273193</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2814,22 +2820,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>-0.004729999999999001</v>
+        <v>0.011589999999998</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E66">
-        <v>-2.457217318273194</v>
+        <v>5.723616746587286</v>
       </c>
       <c r="F66">
-        <v>-3.417217318273194</v>
+        <v>0.5236167465872872</v>
       </c>
       <c r="G66">
-        <v>-4.377217318273193</v>
+        <v>-4.676383253412713</v>
       </c>
       <c r="H66">
-        <v>-5.337217318273193</v>
+        <v>-9.876383253412715</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2840,22 +2846,22 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>-0.002839999999999</v>
+        <v>-0.007284999999998</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>-1.731353951636462</v>
+        <v>-3.494328623113276</v>
       </c>
       <c r="F67">
-        <v>-3.091353951636463</v>
+        <v>-4.134328623113277</v>
       </c>
       <c r="G67">
-        <v>-4.451353951636462</v>
+        <v>-4.774328623113277</v>
       </c>
       <c r="H67">
-        <v>-5.811353951636463</v>
+        <v>-5.414328623113276</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2866,22 +2872,22 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>-0.003070000000000001</v>
+        <v>0.026379999999997</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E68">
-        <v>-1.573828884162464</v>
+        <v>13.76302953600076</v>
       </c>
       <c r="F68">
-        <v>-3.013828884162464</v>
+        <v>4.483029536000762</v>
       </c>
       <c r="G68">
-        <v>-4.453828884162463</v>
+        <v>-4.796970463999238</v>
       </c>
       <c r="H68">
-        <v>-5.893828884162463</v>
+        <v>-14.07697046399924</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2892,22 +2898,22 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>0.002479999999999</v>
+        <v>-0.005299999999998</v>
       </c>
       <c r="D69">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>1.683370891702027</v>
+        <v>-2.633350944910944</v>
       </c>
       <c r="F69">
-        <v>-1.436629108297971</v>
+        <v>-3.753350944910944</v>
       </c>
       <c r="G69">
-        <v>-4.556629108297971</v>
+        <v>-4.873350944910944</v>
       </c>
       <c r="H69">
-        <v>-7.676629108297972</v>
+        <v>-5.993350944910943</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2918,22 +2924,22 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>-0.001610000000001</v>
+        <v>-0.005035361977243</v>
       </c>
       <c r="D70">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>-0.6143790834913814</v>
+        <v>-2.332361198643763</v>
       </c>
       <c r="F70">
-        <v>-2.614379083491382</v>
+        <v>-3.612361198643763</v>
       </c>
       <c r="G70">
-        <v>-4.61437908349138</v>
+        <v>-4.892361198643763</v>
       </c>
       <c r="H70">
-        <v>-6.614379083491382</v>
+        <v>-6.172361198643762</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2944,22 +2950,22 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>-0.003580000000001001</v>
+        <v>-0.007759999999999</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>-2.083773336632228</v>
+        <v>-3.551487414187185</v>
       </c>
       <c r="F71">
-        <v>-3.363773336632228</v>
+        <v>-4.271487414187185</v>
       </c>
       <c r="G71">
-        <v>-4.643773336632227</v>
+        <v>-4.991487414187185</v>
       </c>
       <c r="H71">
-        <v>-5.923773336632228</v>
+        <v>-5.711487414187185</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2970,22 +2976,22 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>0.011589999999998</v>
+        <v>-0.002690000000000001</v>
       </c>
       <c r="D72">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>5.723616746587286</v>
+        <v>-1.352226112961493</v>
       </c>
       <c r="F72">
-        <v>0.5236167465872872</v>
+        <v>-3.192226112961493</v>
       </c>
       <c r="G72">
-        <v>-4.676383253412713</v>
+        <v>-5.032226112961492</v>
       </c>
       <c r="H72">
-        <v>-9.876383253412715</v>
+        <v>-6.872226112961493</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2996,22 +3002,22 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>-0.007284999999998</v>
+        <v>-0.006510000000001</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>-3.494328623113276</v>
+        <v>-3.305132979308389</v>
       </c>
       <c r="F73">
-        <v>-4.134328623113277</v>
+        <v>-4.185132979308388</v>
       </c>
       <c r="G73">
-        <v>-4.774328623113277</v>
+        <v>-5.065132979308387</v>
       </c>
       <c r="H73">
-        <v>-5.414328623113276</v>
+        <v>-5.945132979308387</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3022,22 +3028,22 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>0.026379999999997</v>
+        <v>-0.007150000000000001</v>
       </c>
       <c r="D74">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>13.76302953600076</v>
+        <v>-3.267899175026851</v>
       </c>
       <c r="F74">
-        <v>4.483029536000762</v>
+        <v>-4.227899175026852</v>
       </c>
       <c r="G74">
-        <v>-4.796970463999238</v>
+        <v>-5.187899175026851</v>
       </c>
       <c r="H74">
-        <v>-14.07697046399924</v>
+        <v>-6.147899175026851</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3048,22 +3054,22 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>-0.005299999999998</v>
+        <v>-0.006630000000001001</v>
       </c>
       <c r="D75">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>-2.633350944910944</v>
+        <v>-3.650784158572872</v>
       </c>
       <c r="F75">
-        <v>-3.753350944910944</v>
+        <v>-4.450784158572872</v>
       </c>
       <c r="G75">
-        <v>-4.873350944910944</v>
+        <v>-5.250784158572873</v>
       </c>
       <c r="H75">
-        <v>-5.993350944910943</v>
+        <v>-6.050784158572871</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3074,22 +3080,22 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>-0.005035361977243</v>
+        <v>-0.006264999999999001</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>-2.332361198643763</v>
+        <v>-2.965979996401531</v>
       </c>
       <c r="F76">
-        <v>-3.612361198643763</v>
+        <v>-4.165979996401531</v>
       </c>
       <c r="G76">
-        <v>-4.892361198643763</v>
+        <v>-5.365979996401531</v>
       </c>
       <c r="H76">
-        <v>-6.172361198643762</v>
+        <v>-6.565979996401531</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3100,22 +3106,22 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>-0.007759999999999</v>
+        <v>0.0001399999999989998</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E77">
-        <v>-3.551487414187185</v>
+        <v>0.03074624655945353</v>
       </c>
       <c r="F77">
-        <v>-4.271487414187185</v>
+        <v>-2.689253753440546</v>
       </c>
       <c r="G77">
-        <v>-4.991487414187185</v>
+        <v>-5.409253753440545</v>
       </c>
       <c r="H77">
-        <v>-5.711487414187185</v>
+        <v>-8.129253753440546</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3126,22 +3132,22 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>-0.006510000000001</v>
+        <v>-0.004439999999999</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>-3.305132979308389</v>
+        <v>-2.232002593948458</v>
       </c>
       <c r="F78">
-        <v>-4.185132979308388</v>
+        <v>-3.832002593948458</v>
       </c>
       <c r="G78">
-        <v>-5.065132979308387</v>
+        <v>-5.432002593948458</v>
       </c>
       <c r="H78">
-        <v>-5.945132979308387</v>
+        <v>-7.032002593948457</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3152,22 +3158,22 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>-0.007150000000000001</v>
+        <v>0.005739999999999</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E79">
-        <v>-3.267899175026851</v>
+        <v>3.29622759184132</v>
       </c>
       <c r="F79">
-        <v>-4.227899175026852</v>
+        <v>-1.183772408158682</v>
       </c>
       <c r="G79">
-        <v>-5.187899175026851</v>
+        <v>-5.663772408158681</v>
       </c>
       <c r="H79">
-        <v>-6.147899175026851</v>
+        <v>-10.14377240815868</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3178,22 +3184,22 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>-0.006264999999999001</v>
+        <v>-0.008920000000000001</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>-2.965979996401531</v>
+        <v>-4.076652026671908</v>
       </c>
       <c r="F80">
-        <v>-4.165979996401531</v>
+        <v>-4.876652026671907</v>
       </c>
       <c r="G80">
-        <v>-5.365979996401531</v>
+        <v>-5.676652026671907</v>
       </c>
       <c r="H80">
-        <v>-6.565979996401531</v>
+        <v>-6.476652026671906</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3204,22 +3210,22 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>0.0001399999999989998</v>
+        <v>-0.00306</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.03074624655945353</v>
+        <v>-1.559987764801845</v>
       </c>
       <c r="F81">
-        <v>-2.689253753440546</v>
+        <v>-3.639987764801845</v>
       </c>
       <c r="G81">
-        <v>-5.409253753440545</v>
+        <v>-5.719987764801845</v>
       </c>
       <c r="H81">
-        <v>-8.129253753440546</v>
+        <v>-7.799987764801844</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3230,22 +3236,22 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>-0.004439999999999</v>
+        <v>4.00000000000001E-05</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E82">
-        <v>-2.232002593948458</v>
+        <v>-0.0399319254477204</v>
       </c>
       <c r="F82">
-        <v>-3.832002593948458</v>
+        <v>-2.91993192544772</v>
       </c>
       <c r="G82">
-        <v>-5.432002593948458</v>
+        <v>-5.799931925447719</v>
       </c>
       <c r="H82">
-        <v>-7.032002593948457</v>
+        <v>-8.679931925447718</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3256,22 +3262,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>0.005739999999999</v>
+        <v>0.001020000000002002</v>
       </c>
       <c r="D83">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E83">
-        <v>3.29622759184132</v>
+        <v>0.3976069196349536</v>
       </c>
       <c r="F83">
-        <v>-1.183772408158682</v>
+        <v>-2.722393080365046</v>
       </c>
       <c r="G83">
-        <v>-5.663772408158681</v>
+        <v>-5.842393080365046</v>
       </c>
       <c r="H83">
-        <v>-10.14377240815868</v>
+        <v>-8.962393080365045</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3282,22 +3288,22 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>-0.008920000000000001</v>
+        <v>-0.008379999999998</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>-4.076652026671908</v>
+        <v>-4.139632204049065</v>
       </c>
       <c r="F84">
-        <v>-4.876652026671907</v>
+        <v>-5.019632204049065</v>
       </c>
       <c r="G84">
-        <v>-5.676652026671907</v>
+        <v>-5.899632204049064</v>
       </c>
       <c r="H84">
-        <v>-6.476652026671906</v>
+        <v>-6.779632204049065</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3308,22 +3314,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>-0.006049999999999999</v>
+        <v>-0.00911</v>
       </c>
       <c r="D85">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>-3.302667640190393</v>
+        <v>-4.522209623513136</v>
       </c>
       <c r="F85">
-        <v>-4.502667640190392</v>
+        <v>-5.242209623513136</v>
       </c>
       <c r="G85">
-        <v>-5.702667640190392</v>
+        <v>-5.962209623513135</v>
       </c>
       <c r="H85">
-        <v>-6.902667640190393</v>
+        <v>-6.682209623513136</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3334,22 +3340,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>-0.00306</v>
+        <v>-0.005430000000000001</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E86">
-        <v>-1.559987764801845</v>
+        <v>-3.146716828257383</v>
       </c>
       <c r="F86">
-        <v>-3.639987764801845</v>
+        <v>-4.586716828257382</v>
       </c>
       <c r="G86">
-        <v>-5.719987764801845</v>
+        <v>-6.026716828257381</v>
       </c>
       <c r="H86">
-        <v>-7.799987764801844</v>
+        <v>-7.466716828257383</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3360,22 +3366,22 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>-0.00123</v>
+        <v>-0.007899999999999</v>
       </c>
       <c r="D87">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E87">
-        <v>-0.7703303075412722</v>
+        <v>-3.635270405830696</v>
       </c>
       <c r="F87">
-        <v>-3.250330307541272</v>
+        <v>-4.835270405830697</v>
       </c>
       <c r="G87">
-        <v>-5.730330307541272</v>
+        <v>-6.035270405830697</v>
       </c>
       <c r="H87">
-        <v>-8.210330307541271</v>
+        <v>-7.235270405830698</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3386,22 +3392,22 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>4.00000000000001E-05</v>
+        <v>-0.002329999999999999</v>
       </c>
       <c r="D88">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E88">
-        <v>-0.0399319254477204</v>
+        <v>-1.035859974161872</v>
       </c>
       <c r="F88">
-        <v>-2.91993192544772</v>
+        <v>-3.675859974161873</v>
       </c>
       <c r="G88">
-        <v>-5.799931925447719</v>
+        <v>-6.315859974161872</v>
       </c>
       <c r="H88">
-        <v>-8.679931925447718</v>
+        <v>-8.955859974161873</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3412,22 +3418,22 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>-0.008379999999998</v>
+        <v>0.0003899999999999997</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E89">
-        <v>-4.139632204049065</v>
+        <v>0.4624338663491825</v>
       </c>
       <c r="F89">
-        <v>-5.019632204049065</v>
+        <v>-2.977566133650816</v>
       </c>
       <c r="G89">
-        <v>-5.899632204049064</v>
+        <v>-6.417566133650816</v>
       </c>
       <c r="H89">
-        <v>-6.779632204049065</v>
+        <v>-9.857566133650817</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3438,22 +3444,22 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>-0.00911</v>
+        <v>-0.00034</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>-4.522209623513136</v>
+        <v>-0.03031614027755047</v>
       </c>
       <c r="F90">
-        <v>-5.242209623513136</v>
+        <v>-3.230316140277552</v>
       </c>
       <c r="G90">
-        <v>-5.962209623513135</v>
+        <v>-6.430316140277551</v>
       </c>
       <c r="H90">
-        <v>-6.682209623513136</v>
+        <v>-9.63031614027755</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3464,22 +3470,22 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>-0.007899999999999</v>
+        <v>-0.010269999999999</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>-3.635270405830696</v>
+        <v>-4.772514801055189</v>
       </c>
       <c r="F91">
-        <v>-4.835270405830697</v>
+        <v>-5.65251480105519</v>
       </c>
       <c r="G91">
-        <v>-6.035270405830697</v>
+        <v>-6.532514801055189</v>
       </c>
       <c r="H91">
-        <v>-7.235270405830698</v>
+        <v>-7.41251480105519</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3490,22 +3496,22 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>-0.008089999999999001</v>
+        <v>-0.00292</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E92">
-        <v>-4.770618439595033</v>
+        <v>-1.437166308143328</v>
       </c>
       <c r="F92">
-        <v>-5.570618439595032</v>
+        <v>-4.07716630814333</v>
       </c>
       <c r="G92">
-        <v>-6.370618439595032</v>
+        <v>-6.717166308143327</v>
       </c>
       <c r="H92">
-        <v>-7.170618439595032</v>
+        <v>-9.357166308143329</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3516,22 +3522,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>-0.00034</v>
+        <v>-0.006991531628551001</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E93">
-        <v>-0.03031614027755047</v>
+        <v>-3.395143531450245</v>
       </c>
       <c r="F93">
-        <v>-3.230316140277552</v>
+        <v>-5.075143531450245</v>
       </c>
       <c r="G93">
-        <v>-6.430316140277551</v>
+        <v>-6.755143531450244</v>
       </c>
       <c r="H93">
-        <v>-9.63031614027755</v>
+        <v>-8.435143531450246</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3542,22 +3548,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>-0.010269999999999</v>
+        <v>-0.01059</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>-4.772514801055189</v>
+        <v>-4.853679217178082</v>
       </c>
       <c r="F94">
-        <v>-5.65251480105519</v>
+        <v>-5.813679217178082</v>
       </c>
       <c r="G94">
-        <v>-6.532514801055189</v>
+        <v>-6.773679217178081</v>
       </c>
       <c r="H94">
-        <v>-7.41251480105519</v>
+        <v>-7.733679217178081</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3568,22 +3574,22 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>-0.00292</v>
+        <v>-0.004309999999999</v>
       </c>
       <c r="D95">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E95">
-        <v>-1.437166308143328</v>
+        <v>-2.442929387675859</v>
       </c>
       <c r="F95">
-        <v>-4.07716630814333</v>
+        <v>-4.682929387675859</v>
       </c>
       <c r="G95">
-        <v>-6.717166308143327</v>
+        <v>-6.922929387675858</v>
       </c>
       <c r="H95">
-        <v>-9.357166308143329</v>
+        <v>-9.162929387675858</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3594,22 +3600,22 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>-0.006991531628551001</v>
+        <v>-0.010779999999998</v>
       </c>
       <c r="D96">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>-3.395143531450245</v>
+        <v>-5.360030914576752</v>
       </c>
       <c r="F96">
-        <v>-5.075143531450245</v>
+        <v>-6.160030914576752</v>
       </c>
       <c r="G96">
-        <v>-6.755143531450244</v>
+        <v>-6.960030914576753</v>
       </c>
       <c r="H96">
-        <v>-8.435143531450246</v>
+        <v>-7.760030914576753</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3620,22 +3626,22 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>-0.01059</v>
+        <v>-0.006300000000000034</v>
       </c>
       <c r="D97">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E97">
-        <v>-4.853679217178082</v>
+        <v>-3.379823258058189</v>
       </c>
       <c r="F97">
-        <v>-5.813679217178082</v>
+        <v>-5.299823258058189</v>
       </c>
       <c r="G97">
-        <v>-6.773679217178081</v>
+        <v>-7.21982325805819</v>
       </c>
       <c r="H97">
-        <v>-7.733679217178081</v>
+        <v>-9.13982325805819</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3646,22 +3652,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>-0.004309999999999</v>
+        <v>-0.002149999999998</v>
       </c>
       <c r="D98">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E98">
-        <v>-2.442929387675859</v>
+        <v>-1.172529475590338</v>
       </c>
       <c r="F98">
-        <v>-4.682929387675859</v>
+        <v>-4.292529475590337</v>
       </c>
       <c r="G98">
-        <v>-6.922929387675858</v>
+        <v>-7.412529475590339</v>
       </c>
       <c r="H98">
-        <v>-9.162929387675858</v>
+        <v>-10.53252947559034</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3672,22 +3678,22 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>-0.010779999999998</v>
+        <v>-0.006899999999999001</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E99">
-        <v>-5.360030914576752</v>
+        <v>-4.103542090695766</v>
       </c>
       <c r="F99">
-        <v>-6.160030914576752</v>
+        <v>-5.783542090695768</v>
       </c>
       <c r="G99">
-        <v>-6.960030914576753</v>
+        <v>-7.463542090695766</v>
       </c>
       <c r="H99">
-        <v>-7.760030914576753</v>
+        <v>-9.143542090695766</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3698,22 +3704,22 @@
         <v>105</v>
       </c>
       <c r="C100">
-        <v>-0.008199999999998001</v>
+        <v>-0.007439999999999999</v>
       </c>
       <c r="D100">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E100">
-        <v>-4.964805151483544</v>
+        <v>-4.115842238721998</v>
       </c>
       <c r="F100">
-        <v>-6.084805151483544</v>
+        <v>-5.795842238721999</v>
       </c>
       <c r="G100">
-        <v>-7.204805151483544</v>
+        <v>-7.475842238721997</v>
       </c>
       <c r="H100">
-        <v>-8.324805151483542</v>
+        <v>-9.155842238721998</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3724,22 +3730,22 @@
         <v>106</v>
       </c>
       <c r="C101">
-        <v>-0.006300000000000034</v>
+        <v>-0.003589999999999</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E101">
-        <v>-3.379823258058189</v>
+        <v>-2.129281535011473</v>
       </c>
       <c r="F101">
-        <v>-5.299823258058189</v>
+        <v>-4.849281535011473</v>
       </c>
       <c r="G101">
-        <v>-7.21982325805819</v>
+        <v>-7.569281535011473</v>
       </c>
       <c r="H101">
-        <v>-9.13982325805819</v>
+        <v>-10.28928153501147</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3880,22 +3886,22 @@
         <v>112</v>
       </c>
       <c r="C107">
-        <v>-0.012590000000001</v>
+        <v>-0.010709999999998</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E107">
-        <v>-7.203096901470616</v>
+        <v>-6.304531381253064</v>
       </c>
       <c r="F107">
-        <v>-7.683096901470615</v>
+        <v>-7.264531381253063</v>
       </c>
       <c r="G107">
-        <v>-8.163096901470617</v>
+        <v>-8.224531381253064</v>
       </c>
       <c r="H107">
-        <v>-8.643096901470615</v>
+        <v>-9.184531381253063</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4218,22 +4224,22 @@
         <v>125</v>
       </c>
       <c r="C120">
-        <v>-0.002759999999997999</v>
+        <v>-0.000639999999998999</v>
       </c>
       <c r="D120">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E120">
-        <v>-1.863455788641387</v>
+        <v>-0.6205764515109529</v>
       </c>
       <c r="F120">
-        <v>-5.623455788641386</v>
+        <v>-4.860576451510952</v>
       </c>
       <c r="G120">
-        <v>-9.383455788641387</v>
+        <v>-9.100576451510952</v>
       </c>
       <c r="H120">
-        <v>-13.14345578864138</v>
+        <v>-13.34057645151095</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4426,22 +4432,22 @@
         <v>133</v>
       </c>
       <c r="C128">
-        <v>-0.0004200000000000002</v>
+        <v>-0.015560000000001</v>
       </c>
       <c r="D128">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>-0.65421475361474</v>
+        <v>-8.940650285896989</v>
       </c>
       <c r="F128">
-        <v>-5.454214753614739</v>
+        <v>-9.580650285896986</v>
       </c>
       <c r="G128">
-        <v>-10.25421475361474</v>
+        <v>-10.22065028589699</v>
       </c>
       <c r="H128">
-        <v>-15.05421475361474</v>
+        <v>-10.86065028589699</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4452,22 +4458,22 @@
         <v>134</v>
       </c>
       <c r="C129">
-        <v>-0.015869999999999</v>
+        <v>-0.0004200000000000002</v>
       </c>
       <c r="D129">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E129">
-        <v>-7.845615570519197</v>
+        <v>-0.65421475361474</v>
       </c>
       <c r="F129">
-        <v>-9.125615570519198</v>
+        <v>-5.454214753614739</v>
       </c>
       <c r="G129">
-        <v>-10.4056155705192</v>
+        <v>-10.25421475361474</v>
       </c>
       <c r="H129">
-        <v>-11.6856155705192</v>
+        <v>-15.05421475361474</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4478,22 +4484,22 @@
         <v>135</v>
       </c>
       <c r="C130">
-        <v>0.032949999999997</v>
+        <v>-0.015869999999999</v>
       </c>
       <c r="D130">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="E130">
-        <v>16.45531767517202</v>
+        <v>-7.845615570519197</v>
       </c>
       <c r="F130">
-        <v>3.015317675172018</v>
+        <v>-9.125615570519198</v>
       </c>
       <c r="G130">
-        <v>-10.42468232482798</v>
+        <v>-10.4056155705192</v>
       </c>
       <c r="H130">
-        <v>-23.86468232482798</v>
+        <v>-11.6856155705192</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4504,22 +4510,22 @@
         <v>136</v>
       </c>
       <c r="C131">
-        <v>-0.002830000000002999</v>
+        <v>0.032949999999997</v>
       </c>
       <c r="D131">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="E131">
-        <v>-2.07361222986771</v>
+        <v>16.45531767517202</v>
       </c>
       <c r="F131">
-        <v>-6.39361222986771</v>
+        <v>3.015317675172018</v>
       </c>
       <c r="G131">
-        <v>-10.7136122298677</v>
+        <v>-10.42468232482798</v>
       </c>
       <c r="H131">
-        <v>-15.0336122298677</v>
+        <v>-23.86468232482798</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4530,22 +4536,22 @@
         <v>137</v>
       </c>
       <c r="C132">
-        <v>-0.011740000000001</v>
+        <v>-0.013209999999997</v>
       </c>
       <c r="D132">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E132">
-        <v>-6.63466255160189</v>
+        <v>-7.902819499470525</v>
       </c>
       <c r="F132">
-        <v>-8.714662551601887</v>
+        <v>-9.262819499470526</v>
       </c>
       <c r="G132">
-        <v>-10.79466255160189</v>
+        <v>-10.62281949947053</v>
       </c>
       <c r="H132">
-        <v>-12.87466255160189</v>
+        <v>-11.98281949947052</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4556,22 +4562,22 @@
         <v>138</v>
       </c>
       <c r="C133">
-        <v>-0.010049999999999</v>
+        <v>-0.002830000000002999</v>
       </c>
       <c r="D133">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E133">
-        <v>-4.954216223947382</v>
+        <v>-2.07361222986771</v>
       </c>
       <c r="F133">
-        <v>-7.994216223947381</v>
+        <v>-6.39361222986771</v>
       </c>
       <c r="G133">
-        <v>-11.03421622394738</v>
+        <v>-10.7136122298677</v>
       </c>
       <c r="H133">
-        <v>-14.07421622394738</v>
+        <v>-15.0336122298677</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4582,22 +4588,22 @@
         <v>139</v>
       </c>
       <c r="C134">
-        <v>-0.01583303787462</v>
+        <v>-0.011740000000001</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E134">
-        <v>-7.845535507493197</v>
+        <v>-6.63466255160189</v>
       </c>
       <c r="F134">
-        <v>-9.445535507493197</v>
+        <v>-8.714662551601887</v>
       </c>
       <c r="G134">
-        <v>-11.0455355074932</v>
+        <v>-10.79466255160189</v>
       </c>
       <c r="H134">
-        <v>-12.6455355074932</v>
+        <v>-12.87466255160189</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4608,22 +4614,22 @@
         <v>140</v>
       </c>
       <c r="C135">
-        <v>-7.999999999999934E-05</v>
+        <v>-0.010049999999999</v>
       </c>
       <c r="D135">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E135">
-        <v>0.08279998967399127</v>
+        <v>-4.954216223947382</v>
       </c>
       <c r="F135">
-        <v>-5.51720001032601</v>
+        <v>-7.994216223947381</v>
       </c>
       <c r="G135">
-        <v>-11.11720001032601</v>
+        <v>-11.03421622394738</v>
       </c>
       <c r="H135">
-        <v>-16.71720001032601</v>
+        <v>-14.07421622394738</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4634,22 +4640,22 @@
         <v>141</v>
       </c>
       <c r="C136">
-        <v>-0.011495</v>
+        <v>-0.01583303787462</v>
       </c>
       <c r="D136">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E136">
-        <v>-5.861497240266768</v>
+        <v>-7.845535507493197</v>
       </c>
       <c r="F136">
-        <v>-8.501497240266769</v>
+        <v>-9.445535507493197</v>
       </c>
       <c r="G136">
-        <v>-11.14149724026677</v>
+        <v>-11.0455355074932</v>
       </c>
       <c r="H136">
-        <v>-13.78149724026677</v>
+        <v>-12.6455355074932</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4660,22 +4666,22 @@
         <v>142</v>
       </c>
       <c r="C137">
-        <v>-0.00707</v>
+        <v>-7.999999999999934E-05</v>
       </c>
       <c r="D137">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E137">
-        <v>-3.508410577448405</v>
+        <v>0.08279998967399127</v>
       </c>
       <c r="F137">
-        <v>-7.348410577448405</v>
+        <v>-5.51720001032601</v>
       </c>
       <c r="G137">
-        <v>-11.1884105774484</v>
+        <v>-11.11720001032601</v>
       </c>
       <c r="H137">
-        <v>-15.0284105774484</v>
+        <v>-16.71720001032601</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4686,22 +4692,22 @@
         <v>143</v>
       </c>
       <c r="C138">
-        <v>7.999999999999934E-05</v>
+        <v>-0.011495</v>
       </c>
       <c r="D138">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E138">
-        <v>-0.08279998967399127</v>
+        <v>-5.861497240266768</v>
       </c>
       <c r="F138">
-        <v>-5.682799989673991</v>
+        <v>-8.501497240266769</v>
       </c>
       <c r="G138">
-        <v>-11.28279998967399</v>
+        <v>-11.14149724026677</v>
       </c>
       <c r="H138">
-        <v>-16.88279998967399</v>
+        <v>-13.78149724026677</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4712,22 +4718,22 @@
         <v>144</v>
       </c>
       <c r="C139">
-        <v>0.0004500000000030001</v>
+        <v>-0.00707</v>
       </c>
       <c r="D139">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E139">
-        <v>0.1613999052868889</v>
+        <v>-3.508410577448405</v>
       </c>
       <c r="F139">
-        <v>-5.598600094713111</v>
+        <v>-7.348410577448405</v>
       </c>
       <c r="G139">
-        <v>-11.35860009471311</v>
+        <v>-11.1884105774484</v>
       </c>
       <c r="H139">
-        <v>-17.11860009471311</v>
+        <v>-15.0284105774484</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4738,22 +4744,22 @@
         <v>145</v>
       </c>
       <c r="C140">
-        <v>-0.016145</v>
+        <v>7.999999999999934E-05</v>
       </c>
       <c r="D140">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E140">
-        <v>-8.375706070069466</v>
+        <v>-0.08279998967399127</v>
       </c>
       <c r="F140">
-        <v>-9.895706070069467</v>
+        <v>-5.682799989673991</v>
       </c>
       <c r="G140">
-        <v>-11.41570607006947</v>
+        <v>-11.28279998967399</v>
       </c>
       <c r="H140">
-        <v>-12.93570607006947</v>
+        <v>-16.88279998967399</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4764,22 +4770,22 @@
         <v>146</v>
       </c>
       <c r="C141">
-        <v>-0.016660000000001</v>
+        <v>0.0004500000000030001</v>
       </c>
       <c r="D141">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E141">
-        <v>-9.945472571342775</v>
+        <v>0.1613999052868889</v>
       </c>
       <c r="F141">
-        <v>-10.74547257134277</v>
+        <v>-5.598600094713111</v>
       </c>
       <c r="G141">
-        <v>-11.54547257134277</v>
+        <v>-11.35860009471311</v>
       </c>
       <c r="H141">
-        <v>-12.34547257134277</v>
+        <v>-17.11860009471311</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4790,22 +4796,22 @@
         <v>147</v>
       </c>
       <c r="C142">
-        <v>0.001980000000002</v>
+        <v>-0.016145</v>
       </c>
       <c r="D142">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E142">
-        <v>0.9101148293033501</v>
+        <v>-8.375706070069466</v>
       </c>
       <c r="F142">
-        <v>-5.32988517069665</v>
+        <v>-9.895706070069467</v>
       </c>
       <c r="G142">
-        <v>-11.56988517069665</v>
+        <v>-11.41570607006947</v>
       </c>
       <c r="H142">
-        <v>-17.80988517069665</v>
+        <v>-12.93570607006947</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4816,22 +4822,22 @@
         <v>148</v>
       </c>
       <c r="C143">
-        <v>-0.01423</v>
+        <v>-0.016660000000001</v>
       </c>
       <c r="D143">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E143">
-        <v>-8.630263465967149</v>
+        <v>-9.945472571342775</v>
       </c>
       <c r="F143">
-        <v>-10.15026346596715</v>
+        <v>-10.74547257134277</v>
       </c>
       <c r="G143">
-        <v>-11.67026346596715</v>
+        <v>-11.54547257134277</v>
       </c>
       <c r="H143">
-        <v>-13.19026346596715</v>
+        <v>-12.34547257134277</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4842,22 +4848,22 @@
         <v>149</v>
       </c>
       <c r="C144">
-        <v>-0.015389999999999</v>
+        <v>0.001980000000002</v>
       </c>
       <c r="D144">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E144">
-        <v>-7.60519494537159</v>
+        <v>0.9101148293033501</v>
       </c>
       <c r="F144">
-        <v>-9.685194945371588</v>
+        <v>-5.32988517069665</v>
       </c>
       <c r="G144">
-        <v>-11.76519494537159</v>
+        <v>-11.56988517069665</v>
       </c>
       <c r="H144">
-        <v>-13.84519494537159</v>
+        <v>-17.80988517069665</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4868,22 +4874,22 @@
         <v>150</v>
       </c>
       <c r="C145">
-        <v>-0.01056</v>
+        <v>-0.01423</v>
       </c>
       <c r="D145">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E145">
-        <v>-5.848850833707281</v>
+        <v>-8.630263465967149</v>
       </c>
       <c r="F145">
-        <v>-8.808850833707279</v>
+        <v>-10.15026346596715</v>
       </c>
       <c r="G145">
-        <v>-11.76885083370728</v>
+        <v>-11.67026346596715</v>
       </c>
       <c r="H145">
-        <v>-14.72885083370728</v>
+        <v>-13.19026346596715</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4894,22 +4900,22 @@
         <v>151</v>
       </c>
       <c r="C146">
-        <v>-0.010894999999999</v>
+        <v>-0.015389999999999</v>
       </c>
       <c r="D146">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>-5.375154193004035</v>
+        <v>-7.60519494537159</v>
       </c>
       <c r="F146">
-        <v>-8.575154193004035</v>
+        <v>-9.685194945371588</v>
       </c>
       <c r="G146">
-        <v>-11.77515419300403</v>
+        <v>-11.76519494537159</v>
       </c>
       <c r="H146">
-        <v>-14.97515419300403</v>
+        <v>-13.84519494537159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4920,22 +4926,22 @@
         <v>152</v>
       </c>
       <c r="C147">
-        <v>-0.003359999999999</v>
+        <v>-0.010894999999999</v>
       </c>
       <c r="D147">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E147">
-        <v>-1.730926273928814</v>
+        <v>-5.375154193004035</v>
       </c>
       <c r="F147">
-        <v>-6.930926273928813</v>
+        <v>-8.575154193004035</v>
       </c>
       <c r="G147">
-        <v>-12.13092627392881</v>
+        <v>-11.77515419300403</v>
       </c>
       <c r="H147">
-        <v>-17.33092627392881</v>
+        <v>-14.97515419300403</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4946,22 +4952,22 @@
         <v>153</v>
       </c>
       <c r="C148">
-        <v>-0.005559999999999001</v>
+        <v>-0.003359999999999</v>
       </c>
       <c r="D148">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E148">
-        <v>-2.827419657372218</v>
+        <v>-1.730926273928814</v>
       </c>
       <c r="F148">
-        <v>-7.547419657372219</v>
+        <v>-6.930926273928813</v>
       </c>
       <c r="G148">
-        <v>-12.26741965737222</v>
+        <v>-12.13092627392881</v>
       </c>
       <c r="H148">
-        <v>-16.98741965737222</v>
+        <v>-17.33092627392881</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4972,22 +4978,22 @@
         <v>154</v>
       </c>
       <c r="C149">
-        <v>-0.01953</v>
+        <v>-0.005559999999999001</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E149">
-        <v>-11.39589472921763</v>
+        <v>-2.827419657372218</v>
       </c>
       <c r="F149">
-        <v>-11.87589472921762</v>
+        <v>-7.547419657372219</v>
       </c>
       <c r="G149">
-        <v>-12.35589472921762</v>
+        <v>-12.26741965737222</v>
       </c>
       <c r="H149">
-        <v>-12.83589472921762</v>
+        <v>-16.98741965737222</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4998,22 +5004,22 @@
         <v>155</v>
       </c>
       <c r="C150">
-        <v>-0.01967</v>
+        <v>-0.01953</v>
       </c>
       <c r="D150">
         <v>6</v>
       </c>
       <c r="E150">
-        <v>-11.48244982564445</v>
+        <v>-11.39589472921763</v>
       </c>
       <c r="F150">
-        <v>-11.96244982564445</v>
+        <v>-11.87589472921762</v>
       </c>
       <c r="G150">
-        <v>-12.44244982564445</v>
+        <v>-12.35589472921762</v>
       </c>
       <c r="H150">
-        <v>-12.92244982564445</v>
+        <v>-12.83589472921762</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5024,22 +5030,22 @@
         <v>156</v>
       </c>
       <c r="C151">
-        <v>-0.01838</v>
+        <v>-0.01967</v>
       </c>
       <c r="D151">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E151">
-        <v>-8.39242876059415</v>
+        <v>-11.48244982564445</v>
       </c>
       <c r="F151">
-        <v>-10.47242876059415</v>
+        <v>-11.96244982564445</v>
       </c>
       <c r="G151">
-        <v>-12.55242876059415</v>
+        <v>-12.44244982564445</v>
       </c>
       <c r="H151">
-        <v>-14.63242876059415</v>
+        <v>-12.92244982564445</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5050,22 +5056,22 @@
         <v>157</v>
       </c>
       <c r="C152">
-        <v>-0.019389999999999</v>
+        <v>-0.01838</v>
       </c>
       <c r="D152">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E152">
-        <v>-11.43414770858708</v>
+        <v>-8.39242876059415</v>
       </c>
       <c r="F152">
-        <v>-11.99414770858708</v>
+        <v>-10.47242876059415</v>
       </c>
       <c r="G152">
-        <v>-12.55414770858708</v>
+        <v>-12.55242876059415</v>
       </c>
       <c r="H152">
-        <v>-13.11414770858709</v>
+        <v>-14.63242876059415</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5284,22 +5290,22 @@
         <v>166</v>
       </c>
       <c r="C161">
-        <v>-0.01721</v>
+        <v>-0.021919999999999</v>
       </c>
       <c r="D161">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E161">
-        <v>-8.54457993080929</v>
+        <v>-12.9149788470126</v>
       </c>
       <c r="F161">
-        <v>-11.50457993080929</v>
+        <v>-13.6349788470126</v>
       </c>
       <c r="G161">
-        <v>-14.46457993080929</v>
+        <v>-14.3549788470126</v>
       </c>
       <c r="H161">
-        <v>-17.42457993080929</v>
+        <v>-15.07497884701261</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5310,22 +5316,22 @@
         <v>167</v>
       </c>
       <c r="C162">
-        <v>-0.024749999999999</v>
+        <v>-0.01721</v>
       </c>
       <c r="D162">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E162">
-        <v>-11.79489504737957</v>
+        <v>-8.54457993080929</v>
       </c>
       <c r="F162">
-        <v>-13.15489504737957</v>
+        <v>-11.50457993080929</v>
       </c>
       <c r="G162">
-        <v>-14.51489504737957</v>
+        <v>-14.46457993080929</v>
       </c>
       <c r="H162">
-        <v>-15.87489504737957</v>
+        <v>-17.42457993080929</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5336,22 +5342,22 @@
         <v>168</v>
       </c>
       <c r="C163">
-        <v>-0.0005500000000000001</v>
+        <v>-0.024749999999999</v>
       </c>
       <c r="D163">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E163">
-        <v>-0.3012019185259445</v>
+        <v>-11.79489504737957</v>
       </c>
       <c r="F163">
-        <v>-7.421201918525944</v>
+        <v>-13.15489504737957</v>
       </c>
       <c r="G163">
-        <v>-14.54120191852595</v>
+        <v>-14.51489504737957</v>
       </c>
       <c r="H163">
-        <v>-21.66120191852594</v>
+        <v>-15.87489504737957</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5362,22 +5368,22 @@
         <v>169</v>
       </c>
       <c r="C164">
-        <v>-0.028005999999999</v>
+        <v>-0.0005500000000000001</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E164">
-        <v>-13.64039925152621</v>
+        <v>-0.3012019185259445</v>
       </c>
       <c r="F164">
-        <v>-14.20039925152621</v>
+        <v>-7.421201918525944</v>
       </c>
       <c r="G164">
-        <v>-14.76039925152621</v>
+        <v>-14.54120191852595</v>
       </c>
       <c r="H164">
-        <v>-15.32039925152621</v>
+        <v>-21.66120191852594</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5388,22 +5394,22 @@
         <v>170</v>
       </c>
       <c r="C165">
-        <v>0.007809999999998001</v>
+        <v>-0.028005999999999</v>
       </c>
       <c r="D165">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="E165">
-        <v>3.843979687521637</v>
+        <v>-13.64039925152621</v>
       </c>
       <c r="F165">
-        <v>-5.596020312478362</v>
+        <v>-14.20039925152621</v>
       </c>
       <c r="G165">
-        <v>-15.03602031247836</v>
+        <v>-14.76039925152621</v>
       </c>
       <c r="H165">
-        <v>-24.47602031247836</v>
+        <v>-15.32039925152621</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5414,22 +5420,22 @@
         <v>171</v>
       </c>
       <c r="C166">
-        <v>-0.021839999999999</v>
+        <v>0.007809999999998001</v>
       </c>
       <c r="D166">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E166">
-        <v>-12.93351848672172</v>
+        <v>3.843979687521637</v>
       </c>
       <c r="F166">
-        <v>-14.05351848672172</v>
+        <v>-5.596020312478362</v>
       </c>
       <c r="G166">
-        <v>-15.17351848672171</v>
+        <v>-15.03602031247836</v>
       </c>
       <c r="H166">
-        <v>-16.29351848672172</v>
+        <v>-24.47602031247836</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5518,22 +5524,22 @@
         <v>175</v>
       </c>
       <c r="C170">
-        <v>-0.020739999999997</v>
+        <v>-0.022099999999998</v>
       </c>
       <c r="D170">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E170">
-        <v>-12.32939745510049</v>
+        <v>-13.08565958003043</v>
       </c>
       <c r="F170">
-        <v>-14.0893974551005</v>
+        <v>-14.60565958003043</v>
       </c>
       <c r="G170">
-        <v>-15.84939745510049</v>
+        <v>-16.12565958003043</v>
       </c>
       <c r="H170">
-        <v>-17.60939745510049</v>
+        <v>-17.64565958003043</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5544,22 +5550,22 @@
         <v>176</v>
       </c>
       <c r="C171">
-        <v>-0.020530000000001</v>
+        <v>-0.005550000000003</v>
       </c>
       <c r="D171">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E171">
-        <v>-11.9230792992887</v>
+        <v>-3.509882967200815</v>
       </c>
       <c r="F171">
-        <v>-14.0030792992887</v>
+        <v>-9.829882967200813</v>
       </c>
       <c r="G171">
-        <v>-16.08307929928871</v>
+        <v>-16.14988296720081</v>
       </c>
       <c r="H171">
-        <v>-18.1630792992887</v>
+        <v>-22.46988296720082</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5570,22 +5576,22 @@
         <v>177</v>
       </c>
       <c r="C172">
-        <v>-0.005550000000003</v>
+        <v>0.0004700000000000017</v>
       </c>
       <c r="D172">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E172">
-        <v>-3.509882967200815</v>
+        <v>0.151534556436923</v>
       </c>
       <c r="F172">
-        <v>-9.829882967200813</v>
+        <v>-8.248465443563077</v>
       </c>
       <c r="G172">
-        <v>-16.14988296720081</v>
+        <v>-16.64846544356308</v>
       </c>
       <c r="H172">
-        <v>-22.46988296720082</v>
+        <v>-25.04846544356307</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5596,22 +5602,22 @@
         <v>178</v>
       </c>
       <c r="C173">
-        <v>0.0004700000000000017</v>
+        <v>0.00872</v>
       </c>
       <c r="D173">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E173">
-        <v>0.151534556436923</v>
+        <v>4.10431760988407</v>
       </c>
       <c r="F173">
-        <v>-8.248465443563077</v>
+        <v>-6.29568239011593</v>
       </c>
       <c r="G173">
-        <v>-16.64846544356308</v>
+        <v>-16.69568239011593</v>
       </c>
       <c r="H173">
-        <v>-25.04846544356307</v>
+        <v>-27.09568239011593</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5622,22 +5628,22 @@
         <v>179</v>
       </c>
       <c r="C174">
-        <v>0.00872</v>
+        <v>-0.023329999999999</v>
       </c>
       <c r="D174">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="E174">
-        <v>4.10431760988407</v>
+        <v>-14.0612244926195</v>
       </c>
       <c r="F174">
-        <v>-6.29568239011593</v>
+        <v>-15.4212244926195</v>
       </c>
       <c r="G174">
-        <v>-16.69568239011593</v>
+        <v>-16.7812244926195</v>
       </c>
       <c r="H174">
-        <v>-27.09568239011593</v>
+        <v>-18.1412244926195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5752,22 +5758,22 @@
         <v>184</v>
       </c>
       <c r="C179">
-        <v>-0.022548917399591</v>
+        <v>-0.020450000000001</v>
       </c>
       <c r="D179">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E179">
-        <v>-11.10061660291287</v>
+        <v>-11.8762631623515</v>
       </c>
       <c r="F179">
-        <v>-14.46061660291287</v>
+        <v>-14.59626316235151</v>
       </c>
       <c r="G179">
-        <v>-17.82061660291287</v>
+        <v>-17.3162631623515</v>
       </c>
       <c r="H179">
-        <v>-21.18061660291287</v>
+        <v>-20.03626316235151</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5778,22 +5784,22 @@
         <v>185</v>
       </c>
       <c r="C180">
-        <v>-0.011739999999998</v>
+        <v>-0.022548917399591</v>
       </c>
       <c r="D180">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E180">
-        <v>-6.468693103150895</v>
+        <v>-11.10061660291287</v>
       </c>
       <c r="F180">
-        <v>-12.1486931031509</v>
+        <v>-14.46061660291287</v>
       </c>
       <c r="G180">
-        <v>-17.82869310315089</v>
+        <v>-17.82061660291287</v>
       </c>
       <c r="H180">
-        <v>-23.5086931031509</v>
+        <v>-21.18061660291287</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5804,22 +5810,22 @@
         <v>186</v>
       </c>
       <c r="C181">
-        <v>0.01701</v>
+        <v>-0.011739999999998</v>
       </c>
       <c r="D181">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="E181">
-        <v>8.407065363739648</v>
+        <v>-6.468693103150895</v>
       </c>
       <c r="F181">
-        <v>-4.872934636260354</v>
+        <v>-12.1486931031509</v>
       </c>
       <c r="G181">
-        <v>-18.15293463626035</v>
+        <v>-17.82869310315089</v>
       </c>
       <c r="H181">
-        <v>-31.43293463626035</v>
+        <v>-23.5086931031509</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5830,22 +5836,22 @@
         <v>187</v>
       </c>
       <c r="C182">
-        <v>-0.034378808890338</v>
+        <v>0.01701</v>
       </c>
       <c r="D182">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E182">
-        <v>-16.65550907174579</v>
+        <v>8.407065363739648</v>
       </c>
       <c r="F182">
-        <v>-17.5355090717458</v>
+        <v>-4.872934636260354</v>
       </c>
       <c r="G182">
-        <v>-18.4155090717458</v>
+        <v>-18.15293463626035</v>
       </c>
       <c r="H182">
-        <v>-19.2955090717458</v>
+        <v>-31.43293463626035</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5856,22 +5862,22 @@
         <v>188</v>
       </c>
       <c r="C183">
-        <v>-0.025909999999998</v>
+        <v>-0.034378808890338</v>
       </c>
       <c r="D183">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E183">
-        <v>-12.46808747690936</v>
+        <v>-16.65550907174579</v>
       </c>
       <c r="F183">
-        <v>-15.50808747690936</v>
+        <v>-17.5355090717458</v>
       </c>
       <c r="G183">
-        <v>-18.54808747690934</v>
+        <v>-18.4155090717458</v>
       </c>
       <c r="H183">
-        <v>-21.58808747690934</v>
+        <v>-19.2955090717458</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5882,22 +5888,22 @@
         <v>189</v>
       </c>
       <c r="C184">
-        <v>-0.0185</v>
+        <v>-0.025909999999998</v>
       </c>
       <c r="D184">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E184">
-        <v>-9.118688651800296</v>
+        <v>-12.46808747690936</v>
       </c>
       <c r="F184">
-        <v>-13.8386886518003</v>
+        <v>-15.50808747690936</v>
       </c>
       <c r="G184">
-        <v>-18.5586886518003</v>
+        <v>-18.54808747690934</v>
       </c>
       <c r="H184">
-        <v>-23.2786886518003</v>
+        <v>-21.58808747690934</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5908,22 +5914,22 @@
         <v>190</v>
       </c>
       <c r="C185">
-        <v>-0.027679999999999</v>
+        <v>-0.0185</v>
       </c>
       <c r="D185">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E185">
-        <v>-16.60025849232766</v>
+        <v>-9.118688651800296</v>
       </c>
       <c r="F185">
-        <v>-17.64025849232766</v>
+        <v>-13.8386886518003</v>
       </c>
       <c r="G185">
-        <v>-18.68025849232766</v>
+        <v>-18.5586886518003</v>
       </c>
       <c r="H185">
-        <v>-19.72025849232766</v>
+        <v>-23.2786886518003</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5986,22 +5992,22 @@
         <v>193</v>
       </c>
       <c r="C188">
-        <v>-0.020430000000001</v>
+        <v>-0.03431</v>
       </c>
       <c r="D188">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E188">
-        <v>-12.0284230930283</v>
+        <v>-16.36624908324439</v>
       </c>
       <c r="F188">
-        <v>-15.7084230930283</v>
+        <v>-17.96624908324439</v>
       </c>
       <c r="G188">
-        <v>-19.3884230930283</v>
+        <v>-19.56624908324439</v>
       </c>
       <c r="H188">
-        <v>-23.06842309302829</v>
+        <v>-21.16624908324439</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6012,22 +6018,22 @@
         <v>194</v>
       </c>
       <c r="C189">
-        <v>-0.03431</v>
+        <v>0.025701999999998</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="E189">
-        <v>-16.36624908324439</v>
+        <v>12.69508657039455</v>
       </c>
       <c r="F189">
-        <v>-17.96624908324439</v>
+        <v>-3.54491342960545</v>
       </c>
       <c r="G189">
-        <v>-19.56624908324439</v>
+        <v>-19.78491342960545</v>
       </c>
       <c r="H189">
-        <v>-21.16624908324439</v>
+        <v>-36.02491342960544</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6038,22 +6044,22 @@
         <v>195</v>
       </c>
       <c r="C190">
-        <v>0.025701999999998</v>
+        <v>-0.013149999999999</v>
       </c>
       <c r="D190">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="E190">
-        <v>12.69508657039455</v>
+        <v>-7.346815976640423</v>
       </c>
       <c r="F190">
-        <v>-3.54491342960545</v>
+        <v>-13.58681597664042</v>
       </c>
       <c r="G190">
-        <v>-19.78491342960545</v>
+        <v>-19.82681597664043</v>
       </c>
       <c r="H190">
-        <v>-36.02491342960544</v>
+        <v>-26.06681597664042</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6090,22 +6096,22 @@
         <v>197</v>
       </c>
       <c r="C192">
-        <v>-0.033815471412303</v>
+        <v>-0.013590000000001</v>
       </c>
       <c r="D192">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E192">
-        <v>-16.38428040185653</v>
+        <v>-8.018184966817925</v>
       </c>
       <c r="F192">
-        <v>-18.62428040185653</v>
+        <v>-14.25818496681792</v>
       </c>
       <c r="G192">
-        <v>-20.86428040185653</v>
+        <v>-20.49818496681792</v>
       </c>
       <c r="H192">
-        <v>-23.10428040185653</v>
+        <v>-26.73818496681792</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6116,22 +6122,22 @@
         <v>198</v>
       </c>
       <c r="C193">
-        <v>-0.025672587773681</v>
+        <v>-0.033815471412303</v>
       </c>
       <c r="D193">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E193">
-        <v>-12.74407969095757</v>
+        <v>-16.38428040185653</v>
       </c>
       <c r="F193">
-        <v>-16.90407969095758</v>
+        <v>-18.62428040185653</v>
       </c>
       <c r="G193">
-        <v>-21.06407969095758</v>
+        <v>-20.86428040185653</v>
       </c>
       <c r="H193">
-        <v>-25.22407969095758</v>
+        <v>-23.10428040185653</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6142,22 +6148,22 @@
         <v>199</v>
       </c>
       <c r="C194">
-        <v>0.0007400000000020003</v>
+        <v>-0.025672587773681</v>
       </c>
       <c r="D194">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="E194">
-        <v>0.3515209729004679</v>
+        <v>-12.74407969095757</v>
       </c>
       <c r="F194">
-        <v>-10.36847902709953</v>
+        <v>-16.90407969095758</v>
       </c>
       <c r="G194">
-        <v>-21.08847902709953</v>
+        <v>-21.06407969095758</v>
       </c>
       <c r="H194">
-        <v>-31.80847902709953</v>
+        <v>-25.22407969095758</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6168,22 +6174,22 @@
         <v>200</v>
       </c>
       <c r="C195">
-        <v>-0.023573628984577</v>
+        <v>0.0007400000000020003</v>
       </c>
       <c r="D195">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="E195">
-        <v>-11.62509166966201</v>
+        <v>0.3515209729004679</v>
       </c>
       <c r="F195">
-        <v>-16.90509166966201</v>
+        <v>-10.36847902709953</v>
       </c>
       <c r="G195">
-        <v>-22.18509166966201</v>
+        <v>-21.08847902709953</v>
       </c>
       <c r="H195">
-        <v>-27.46509166966201</v>
+        <v>-31.80847902709953</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6194,22 +6200,22 @@
         <v>201</v>
       </c>
       <c r="C196">
-        <v>-0.00313</v>
+        <v>-0.019439999999998</v>
       </c>
       <c r="D196">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="E196">
-        <v>-1.632913925901136</v>
+        <v>-11.56608459134598</v>
       </c>
       <c r="F196">
-        <v>-12.19291392590114</v>
+        <v>-16.60608459134599</v>
       </c>
       <c r="G196">
-        <v>-22.75291392590114</v>
+        <v>-21.64608459134597</v>
       </c>
       <c r="H196">
-        <v>-33.31291392590113</v>
+        <v>-26.68608459134598</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6220,22 +6226,22 @@
         <v>202</v>
       </c>
       <c r="C197">
-        <v>-0.02333</v>
+        <v>-0.023573628984577</v>
       </c>
       <c r="D197">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E197">
-        <v>-11.49108514411046</v>
+        <v>-11.62509166966201</v>
       </c>
       <c r="F197">
-        <v>-17.17108514411046</v>
+        <v>-16.90509166966201</v>
       </c>
       <c r="G197">
-        <v>-22.85108514411046</v>
+        <v>-22.18509166966201</v>
       </c>
       <c r="H197">
-        <v>-28.53108514411046</v>
+        <v>-27.46509166966201</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6246,22 +6252,22 @@
         <v>203</v>
       </c>
       <c r="C198">
-        <v>-0.005880000000002</v>
+        <v>-0.026329999999999</v>
       </c>
       <c r="D198">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="E198">
-        <v>-3.075315165307575</v>
+        <v>-16.33053266930922</v>
       </c>
       <c r="F198">
-        <v>-13.23531516530758</v>
+        <v>-19.29053266930922</v>
       </c>
       <c r="G198">
-        <v>-23.39531516530757</v>
+        <v>-22.25053266930922</v>
       </c>
       <c r="H198">
-        <v>-33.55531516530757</v>
+        <v>-25.21053266930922</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6272,22 +6278,22 @@
         <v>204</v>
       </c>
       <c r="C199">
-        <v>-0.011729999999998</v>
+        <v>-0.00313</v>
       </c>
       <c r="D199">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E199">
-        <v>-5.796656872894585</v>
+        <v>-1.632913925901136</v>
       </c>
       <c r="F199">
-        <v>-14.67665687289458</v>
+        <v>-12.19291392590114</v>
       </c>
       <c r="G199">
-        <v>-23.55665687289459</v>
+        <v>-22.75291392590114</v>
       </c>
       <c r="H199">
-        <v>-32.43665687289458</v>
+        <v>-33.31291392590113</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6298,22 +6304,22 @@
         <v>205</v>
       </c>
       <c r="C200">
-        <v>-0.016209999999997</v>
+        <v>-0.02333</v>
       </c>
       <c r="D200">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E200">
-        <v>-8.083931885865647</v>
+        <v>-11.49108514411046</v>
       </c>
       <c r="F200">
-        <v>-16.16393188586565</v>
+        <v>-17.17108514411046</v>
       </c>
       <c r="G200">
-        <v>-24.24393188586565</v>
+        <v>-22.85108514411046</v>
       </c>
       <c r="H200">
-        <v>-32.32393188586565</v>
+        <v>-28.53108514411046</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6324,22 +6330,22 @@
         <v>206</v>
       </c>
       <c r="C201">
-        <v>-0.034289999999999</v>
+        <v>-0.005880000000002</v>
       </c>
       <c r="D201">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="E201">
-        <v>-20.04021631335791</v>
+        <v>-3.075315165307575</v>
       </c>
       <c r="F201">
-        <v>-22.60021631335791</v>
+        <v>-13.23531516530758</v>
       </c>
       <c r="G201">
-        <v>-25.16021631335791</v>
+        <v>-23.39531516530757</v>
       </c>
       <c r="H201">
-        <v>-27.72021631335791</v>
+        <v>-33.55531516530757</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6350,22 +6356,22 @@
         <v>207</v>
       </c>
       <c r="C202">
-        <v>-0.032662499999996</v>
+        <v>-0.011729999999998</v>
       </c>
       <c r="D202">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E202">
-        <v>-15.67058218618669</v>
+        <v>-5.796656872894585</v>
       </c>
       <c r="F202">
-        <v>-20.47058218618669</v>
+        <v>-14.67665687289458</v>
       </c>
       <c r="G202">
-        <v>-25.27058218618669</v>
+        <v>-23.55665687289459</v>
       </c>
       <c r="H202">
-        <v>-30.07058218618669</v>
+        <v>-32.43665687289458</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6376,22 +6382,22 @@
         <v>208</v>
       </c>
       <c r="C203">
-        <v>-0.033999999999998</v>
+        <v>-0.016209999999997</v>
       </c>
       <c r="D203">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E203">
-        <v>-20.82999003592348</v>
+        <v>-8.083931885865647</v>
       </c>
       <c r="F203">
-        <v>-23.30999003592348</v>
+        <v>-16.16393188586565</v>
       </c>
       <c r="G203">
-        <v>-25.78999003592348</v>
+        <v>-24.24393188586565</v>
       </c>
       <c r="H203">
-        <v>-28.26999003592348</v>
+        <v>-32.32393188586565</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6402,22 +6408,22 @@
         <v>209</v>
       </c>
       <c r="C204">
-        <v>-0.001510000000001</v>
+        <v>-0.032662499999996</v>
       </c>
       <c r="D204">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="E204">
-        <v>-0.9028366152465608</v>
+        <v>-15.67058218618669</v>
       </c>
       <c r="F204">
-        <v>-13.54283661524656</v>
+        <v>-20.47058218618669</v>
       </c>
       <c r="G204">
-        <v>-26.18283661524656</v>
+        <v>-25.27058218618669</v>
       </c>
       <c r="H204">
-        <v>-38.82283661524655</v>
+        <v>-30.07058218618669</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6428,22 +6434,22 @@
         <v>210</v>
       </c>
       <c r="C205">
-        <v>-0.035009999999997</v>
+        <v>-0.001510000000001</v>
       </c>
       <c r="D205">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="E205">
-        <v>-17.02172241893285</v>
+        <v>-0.9028366152465608</v>
       </c>
       <c r="F205">
-        <v>-21.74172241893285</v>
+        <v>-13.54283661524656</v>
       </c>
       <c r="G205">
-        <v>-26.46172241893284</v>
+        <v>-26.18283661524656</v>
       </c>
       <c r="H205">
-        <v>-31.18172241893284</v>
+        <v>-38.82283661524655</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6454,22 +6460,22 @@
         <v>211</v>
       </c>
       <c r="C206">
-        <v>0.015566056047739</v>
+        <v>-0.035009999999997</v>
       </c>
       <c r="D206">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="E206">
-        <v>8.100132258714986</v>
+        <v>-17.02172241893285</v>
       </c>
       <c r="F206">
-        <v>-9.259867741285017</v>
+        <v>-21.74172241893285</v>
       </c>
       <c r="G206">
-        <v>-26.61986774128501</v>
+        <v>-26.46172241893284</v>
       </c>
       <c r="H206">
-        <v>-43.97986774128501</v>
+        <v>-31.18172241893284</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6480,22 +6486,22 @@
         <v>212</v>
       </c>
       <c r="C207">
-        <v>-0.033459999999996</v>
+        <v>0.015566056047739</v>
       </c>
       <c r="D207">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="E207">
-        <v>-15.8225627459942</v>
+        <v>8.100132258714986</v>
       </c>
       <c r="F207">
-        <v>-21.3425627459942</v>
+        <v>-9.259867741285017</v>
       </c>
       <c r="G207">
-        <v>-26.8625627459942</v>
+        <v>-26.61986774128501</v>
       </c>
       <c r="H207">
-        <v>-32.3825627459942</v>
+        <v>-43.97986774128501</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6506,22 +6512,22 @@
         <v>213</v>
       </c>
       <c r="C208">
-        <v>-0.004700000000000999</v>
+        <v>-0.033459999999996</v>
       </c>
       <c r="D208">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="E208">
-        <v>-2.407650862379942</v>
+        <v>-15.8225627459942</v>
       </c>
       <c r="F208">
-        <v>-14.72765086237994</v>
+        <v>-21.3425627459942</v>
       </c>
       <c r="G208">
-        <v>-27.04765086237995</v>
+        <v>-26.8625627459942</v>
       </c>
       <c r="H208">
-        <v>-39.36765086237995</v>
+        <v>-32.3825627459942</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6532,22 +6538,22 @@
         <v>214</v>
       </c>
       <c r="C209">
-        <v>-0.016759999999998</v>
+        <v>-0.004700000000000999</v>
       </c>
       <c r="D209">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E209">
-        <v>-8.464790858926625</v>
+        <v>-2.407650862379942</v>
       </c>
       <c r="F209">
-        <v>-17.90479085892662</v>
+        <v>-14.72765086237994</v>
       </c>
       <c r="G209">
-        <v>-27.34479085892663</v>
+        <v>-27.04765086237995</v>
       </c>
       <c r="H209">
-        <v>-36.78479085892663</v>
+        <v>-39.36765086237995</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6558,22 +6564,22 @@
         <v>215</v>
       </c>
       <c r="C210">
-        <v>-0.008919999999999002</v>
+        <v>-0.016759999999998</v>
       </c>
       <c r="D210">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E210">
-        <v>-4.495177186672406</v>
+        <v>-8.464790858926625</v>
       </c>
       <c r="F210">
-        <v>-16.01517718667241</v>
+        <v>-17.90479085892662</v>
       </c>
       <c r="G210">
-        <v>-27.53517718667241</v>
+        <v>-27.34479085892663</v>
       </c>
       <c r="H210">
-        <v>-39.0551771866724</v>
+        <v>-36.78479085892663</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6584,22 +6590,22 @@
         <v>216</v>
       </c>
       <c r="C211">
-        <v>-0.022539999999998</v>
+        <v>-0.008919999999999002</v>
       </c>
       <c r="D211">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="E211">
-        <v>-11.19490491295886</v>
+        <v>-4.495177186672406</v>
       </c>
       <c r="F211">
-        <v>-19.59490491295886</v>
+        <v>-16.01517718667241</v>
       </c>
       <c r="G211">
-        <v>-27.99490491295885</v>
+        <v>-27.53517718667241</v>
       </c>
       <c r="H211">
-        <v>-36.39490491295886</v>
+        <v>-39.0551771866724</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6610,22 +6616,22 @@
         <v>217</v>
       </c>
       <c r="C212">
-        <v>-0.003900000000002</v>
+        <v>-0.022539999999998</v>
       </c>
       <c r="D212">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="E212">
-        <v>-1.973541162752713</v>
+        <v>-11.19490491295886</v>
       </c>
       <c r="F212">
-        <v>-15.09354116275271</v>
+        <v>-19.59490491295886</v>
       </c>
       <c r="G212">
-        <v>-28.2135411627527</v>
+        <v>-27.99490491295885</v>
       </c>
       <c r="H212">
-        <v>-41.33354116275271</v>
+        <v>-36.39490491295886</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6636,22 +6642,22 @@
         <v>218</v>
       </c>
       <c r="C213">
-        <v>0.004720000000001</v>
+        <v>-0.003900000000002</v>
       </c>
       <c r="D213">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="E213">
-        <v>2.317844751564635</v>
+        <v>-1.973541162752713</v>
       </c>
       <c r="F213">
-        <v>-12.96215524843537</v>
+        <v>-15.09354116275271</v>
       </c>
       <c r="G213">
-        <v>-28.24215524843536</v>
+        <v>-28.2135411627527</v>
       </c>
       <c r="H213">
-        <v>-43.52215524843535</v>
+        <v>-41.33354116275271</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6662,22 +6668,22 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>-0.010077178049054</v>
+        <v>0.004720000000001</v>
       </c>
       <c r="D214">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="E214">
-        <v>-4.80104857342125</v>
+        <v>2.317844751564635</v>
       </c>
       <c r="F214">
-        <v>-16.80104857342124</v>
+        <v>-12.96215524843537</v>
       </c>
       <c r="G214">
-        <v>-28.80104857342125</v>
+        <v>-28.24215524843536</v>
       </c>
       <c r="H214">
-        <v>-40.80104857342125</v>
+        <v>-43.52215524843535</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6688,22 +6694,22 @@
         <v>220</v>
       </c>
       <c r="C215">
-        <v>-0.03854</v>
+        <v>-0.010077178049054</v>
       </c>
       <c r="D215">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E215">
-        <v>-18.46704307040029</v>
+        <v>-4.80104857342125</v>
       </c>
       <c r="F215">
-        <v>-23.74704307040028</v>
+        <v>-16.80104857342124</v>
       </c>
       <c r="G215">
-        <v>-29.02704307040027</v>
+        <v>-28.80104857342125</v>
       </c>
       <c r="H215">
-        <v>-34.30704307040028</v>
+        <v>-40.80104857342125</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6714,22 +6720,22 @@
         <v>221</v>
       </c>
       <c r="C216">
-        <v>-0.02071</v>
+        <v>-0.03854</v>
       </c>
       <c r="D216">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="E216">
-        <v>-10.34984270852849</v>
+        <v>-18.46704307040029</v>
       </c>
       <c r="F216">
-        <v>-19.70984270852849</v>
+        <v>-23.74704307040028</v>
       </c>
       <c r="G216">
-        <v>-29.06984270852849</v>
+        <v>-29.02704307040027</v>
       </c>
       <c r="H216">
-        <v>-38.42984270852848</v>
+        <v>-34.30704307040028</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6740,22 +6746,22 @@
         <v>222</v>
       </c>
       <c r="C217">
-        <v>-0.005750000000002999</v>
+        <v>-0.02071</v>
       </c>
       <c r="D217">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="E217">
-        <v>-2.510109163278885</v>
+        <v>-10.34984270852849</v>
       </c>
       <c r="F217">
-        <v>-15.79010916327888</v>
+        <v>-19.70984270852849</v>
       </c>
       <c r="G217">
-        <v>-29.07010916327888</v>
+        <v>-29.06984270852849</v>
       </c>
       <c r="H217">
-        <v>-42.35010916327888</v>
+        <v>-38.42984270852848</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6766,22 +6772,22 @@
         <v>223</v>
       </c>
       <c r="C218">
-        <v>-0.004400000000000999</v>
+        <v>-0.005750000000002999</v>
       </c>
       <c r="D218">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E218">
-        <v>-2.439005480594955</v>
+        <v>-2.510109163278885</v>
       </c>
       <c r="F218">
-        <v>-16.83900548059496</v>
+        <v>-15.79010916327888</v>
       </c>
       <c r="G218">
-        <v>-31.23900548059495</v>
+        <v>-29.07010916327888</v>
       </c>
       <c r="H218">
-        <v>-45.63900548059497</v>
+        <v>-42.35010916327888</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6792,22 +6798,22 @@
         <v>224</v>
       </c>
       <c r="C219">
-        <v>-0.028063720461261</v>
+        <v>-0.004400000000000999</v>
       </c>
       <c r="D219">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E219">
-        <v>-13.82367180925951</v>
+        <v>-2.439005480594955</v>
       </c>
       <c r="F219">
-        <v>-24.46367180925952</v>
+        <v>-16.83900548059496</v>
       </c>
       <c r="G219">
-        <v>-35.10367180925952</v>
+        <v>-31.23900548059495</v>
       </c>
       <c r="H219">
-        <v>-45.74367180925951</v>
+        <v>-45.63900548059497</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6818,22 +6824,22 @@
         <v>225</v>
       </c>
       <c r="C220">
-        <v>-0.062401581099561</v>
+        <v>-0.028063720461261</v>
       </c>
       <c r="D220">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E220">
-        <v>-29.62092966686451</v>
+        <v>-13.82367180925951</v>
       </c>
       <c r="F220">
-        <v>-32.42092966686451</v>
+        <v>-24.46367180925952</v>
       </c>
       <c r="G220">
-        <v>-35.22092966686451</v>
+        <v>-35.10367180925952</v>
       </c>
       <c r="H220">
-        <v>-38.0209296668645</v>
+        <v>-45.74367180925951</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6844,22 +6850,22 @@
         <v>226</v>
       </c>
       <c r="C221">
-        <v>-0.037189999999995</v>
+        <v>-0.062401581099561</v>
       </c>
       <c r="D221">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="E221">
-        <v>-18.23804693210746</v>
+        <v>-29.62092966686451</v>
       </c>
       <c r="F221">
-        <v>-27.59804693210746</v>
+        <v>-32.42092966686451</v>
       </c>
       <c r="G221">
-        <v>-36.95804693210746</v>
+        <v>-35.22092966686451</v>
       </c>
       <c r="H221">
-        <v>-46.31804693210746</v>
+        <v>-38.0209296668645</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6870,22 +6876,22 @@
         <v>227</v>
       </c>
       <c r="C222">
-        <v>-0.030803836412131</v>
+        <v>-0.037189999999995</v>
       </c>
       <c r="D222">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E222">
-        <v>-15.22290245379563</v>
+        <v>-18.23804693210746</v>
       </c>
       <c r="F222">
-        <v>-26.50290245379563</v>
+        <v>-27.59804693210746</v>
       </c>
       <c r="G222">
-        <v>-37.78290245379563</v>
+        <v>-36.95804693210746</v>
       </c>
       <c r="H222">
-        <v>-49.06290245379563</v>
+        <v>-46.31804693210746</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6896,22 +6902,22 @@
         <v>228</v>
       </c>
       <c r="C223">
-        <v>-0.013959999999999</v>
+        <v>-0.036219999999998</v>
       </c>
       <c r="D223">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="E223">
-        <v>-7.060024820590673</v>
+        <v>-21.16935583917723</v>
       </c>
       <c r="F223">
-        <v>-22.74002482059067</v>
+        <v>-29.16935583917723</v>
       </c>
       <c r="G223">
-        <v>-38.42002482059068</v>
+        <v>-37.16935583917723</v>
       </c>
       <c r="H223">
-        <v>-54.10002482059067</v>
+        <v>-45.16935583917723</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6922,22 +6928,22 @@
         <v>229</v>
       </c>
       <c r="C224">
-        <v>-0.036539999999996</v>
+        <v>-0.030803836412131</v>
       </c>
       <c r="D224">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E224">
-        <v>-17.89136775970891</v>
+        <v>-15.22290245379563</v>
       </c>
       <c r="F224">
-        <v>-28.21136775970891</v>
+        <v>-26.50290245379563</v>
       </c>
       <c r="G224">
-        <v>-38.53136775970891</v>
+        <v>-37.78290245379563</v>
       </c>
       <c r="H224">
-        <v>-48.85136775970891</v>
+        <v>-49.06290245379563</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6948,22 +6954,22 @@
         <v>230</v>
       </c>
       <c r="C225">
-        <v>-0.0382</v>
+        <v>-0.013959999999999</v>
       </c>
       <c r="D225">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="E225">
-        <v>-17.3237479672938</v>
+        <v>-7.060024820590673</v>
       </c>
       <c r="F225">
-        <v>-29.9637479672938</v>
+        <v>-22.74002482059067</v>
       </c>
       <c r="G225">
-        <v>-42.6037479672938</v>
+        <v>-38.42002482059068</v>
       </c>
       <c r="H225">
-        <v>-55.2437479672938</v>
+        <v>-54.10002482059067</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6974,22 +6980,22 @@
         <v>231</v>
       </c>
       <c r="C226">
-        <v>-0.020510000000001</v>
+        <v>-0.036539999999996</v>
       </c>
       <c r="D226">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="E226">
-        <v>-10.27474117938679</v>
+        <v>-17.89136775970891</v>
       </c>
       <c r="F226">
-        <v>-27.2347411793868</v>
+        <v>-28.21136775970891</v>
       </c>
       <c r="G226">
-        <v>-44.19474117938679</v>
+        <v>-38.53136775970891</v>
       </c>
       <c r="H226">
-        <v>-61.1547411793868</v>
+        <v>-48.85136775970891</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7000,22 +7006,22 @@
         <v>232</v>
       </c>
       <c r="C227">
-        <v>-0.028799999999997</v>
+        <v>-0.0382</v>
       </c>
       <c r="D227">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="E227">
-        <v>-14.43976618916839</v>
+        <v>-17.3237479672938</v>
       </c>
       <c r="F227">
-        <v>-30.0397661891684</v>
+        <v>-29.9637479672938</v>
       </c>
       <c r="G227">
-        <v>-45.63976618916839</v>
+        <v>-42.6037479672938</v>
       </c>
       <c r="H227">
-        <v>-61.23976618916839</v>
+        <v>-55.2437479672938</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7026,22 +7032,22 @@
         <v>233</v>
       </c>
       <c r="C228">
-        <v>-0.046674999999998</v>
+        <v>-0.020510000000001</v>
       </c>
       <c r="D228">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="E228">
-        <v>-22.89065202137732</v>
+        <v>-10.27474117938679</v>
       </c>
       <c r="F228">
-        <v>-35.13065202137732</v>
+        <v>-27.2347411793868</v>
       </c>
       <c r="G228">
-        <v>-47.37065202137732</v>
+        <v>-44.19474117938679</v>
       </c>
       <c r="H228">
-        <v>-59.61065202137732</v>
+        <v>-61.1547411793868</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7052,22 +7058,22 @@
         <v>234</v>
       </c>
       <c r="C229">
-        <v>-0.050725941009708</v>
+        <v>-0.028799999999997</v>
       </c>
       <c r="D229">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="E229">
-        <v>-24.20854741459992</v>
+        <v>-14.43976618916839</v>
       </c>
       <c r="F229">
-        <v>-37.16854741459993</v>
+        <v>-30.0397661891684</v>
       </c>
       <c r="G229">
-        <v>-50.12854741459992</v>
+        <v>-45.63976618916839</v>
       </c>
       <c r="H229">
-        <v>-63.08854741459992</v>
+        <v>-61.23976618916839</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7078,22 +7084,22 @@
         <v>235</v>
       </c>
       <c r="C230">
-        <v>-0.056439999999999</v>
+        <v>-0.046674999999998</v>
       </c>
       <c r="D230">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E230">
-        <v>-27.70288940205256</v>
+        <v>-22.89065202137732</v>
       </c>
       <c r="F230">
-        <v>-41.38288940205256</v>
+        <v>-35.13065202137732</v>
       </c>
       <c r="G230">
-        <v>-55.06288940205255</v>
+        <v>-47.37065202137732</v>
       </c>
       <c r="H230">
-        <v>-68.74288940205254</v>
+        <v>-59.61065202137732</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7104,22 +7110,22 @@
         <v>236</v>
       </c>
       <c r="C231">
-        <v>-0.04672</v>
+        <v>-0.050725941009708</v>
       </c>
       <c r="D231">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="E231">
-        <v>-22.41805660447345</v>
+        <v>-24.20854741459992</v>
       </c>
       <c r="F231">
-        <v>-39.53805660447345</v>
+        <v>-37.16854741459993</v>
       </c>
       <c r="G231">
-        <v>-56.65805660447344</v>
+        <v>-50.12854741459992</v>
       </c>
       <c r="H231">
-        <v>-73.77805660447345</v>
+        <v>-63.08854741459992</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7130,22 +7136,22 @@
         <v>237</v>
       </c>
       <c r="C232">
-        <v>-0.01124999999999993</v>
+        <v>-0.056439999999999</v>
       </c>
       <c r="D232">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="E232">
-        <v>-5.813294917959784</v>
+        <v>-27.70288940205256</v>
       </c>
       <c r="F232">
-        <v>-33.0132949179598</v>
+        <v>-41.38288940205256</v>
       </c>
       <c r="G232">
-        <v>-60.21329491795978</v>
+        <v>-55.06288940205255</v>
       </c>
       <c r="H232">
-        <v>-87.41329491795979</v>
+        <v>-68.74288940205254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7156,22 +7162,22 @@
         <v>238</v>
       </c>
       <c r="C233">
-        <v>-0.054069999999999</v>
+        <v>-0.04672</v>
       </c>
       <c r="D233">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E233">
-        <v>-26.89163378515709</v>
+        <v>-22.41805660447345</v>
       </c>
       <c r="F233">
-        <v>-43.77163378515711</v>
+        <v>-39.53805660447345</v>
       </c>
       <c r="G233">
-        <v>-60.6516337851571</v>
+        <v>-56.65805660447344</v>
       </c>
       <c r="H233">
-        <v>-77.53163378515708</v>
+        <v>-73.77805660447345</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7182,22 +7188,22 @@
         <v>239</v>
       </c>
       <c r="C234">
-        <v>0.001919999999999</v>
+        <v>-0.01124999999999993</v>
       </c>
       <c r="D234">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="E234">
-        <v>0.958817879444293</v>
+        <v>-5.813294917959784</v>
       </c>
       <c r="F234">
-        <v>-32.00118212055571</v>
+        <v>-33.0132949179598</v>
       </c>
       <c r="G234">
-        <v>-64.96118212055572</v>
+        <v>-60.21329491795978</v>
       </c>
       <c r="H234">
-        <v>-97.92118212055571</v>
+        <v>-87.41329491795979</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7208,26 +7214,78 @@
         <v>240</v>
       </c>
       <c r="C235">
+        <v>-0.054069999999999</v>
+      </c>
+      <c r="D235">
+        <v>211</v>
+      </c>
+      <c r="E235">
+        <v>-26.89163378515709</v>
+      </c>
+      <c r="F235">
+        <v>-43.77163378515711</v>
+      </c>
+      <c r="G235">
+        <v>-60.6516337851571</v>
+      </c>
+      <c r="H235">
+        <v>-77.53163378515708</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>241</v>
+      </c>
+      <c r="C236">
+        <v>0.001919999999999</v>
+      </c>
+      <c r="D236">
+        <v>412</v>
+      </c>
+      <c r="E236">
+        <v>0.958817879444293</v>
+      </c>
+      <c r="F236">
+        <v>-32.00118212055571</v>
+      </c>
+      <c r="G236">
+        <v>-64.96118212055572</v>
+      </c>
+      <c r="H236">
+        <v>-97.92118212055571</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237">
         <v>-0.06904999999999602</v>
       </c>
-      <c r="D235">
+      <c r="D237">
         <v>248</v>
       </c>
-      <c r="E235">
+      <c r="E237">
         <v>-33.16178276812739</v>
       </c>
-      <c r="F235">
+      <c r="F237">
         <v>-53.00178276812739</v>
       </c>
-      <c r="G235">
+      <c r="G237">
         <v>-72.84178276812737</v>
       </c>
-      <c r="H235">
+      <c r="H237">
         <v>-92.68178276812739</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B235">
+  <conditionalFormatting sqref="B2:B237">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7242,7 +7300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C235">
+  <conditionalFormatting sqref="C2:C237">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7257,7 +7315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D235">
+  <conditionalFormatting sqref="D2:D237">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7272,7 +7330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E235">
+  <conditionalFormatting sqref="E2:E237">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7287,7 +7345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F235">
+  <conditionalFormatting sqref="F2:F237">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7302,7 +7360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G235">
+  <conditionalFormatting sqref="G2:G237">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7317,7 +7375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H235">
+  <conditionalFormatting sqref="H2:H237">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Total_All_Test_Result__bitget.xlsx
+++ b/Total_All_Test_Result__bitget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -37,166 +37,175 @@
     <t>total_max_fee_percent</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_15m_LTA_APHOBO_10_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_PTA4_WDDCr_9_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR5_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_LTA_MISO_52_9_26_52_14_12_26_9</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_15m_PTA2_LISICA_7_2</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_LTA_APHOBO_10_1</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_15m_PTA2_DDCrWork_5</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_15m_PTA4_WDDCr_5_30</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR7_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_PTA4_WDDCr_30_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDDCr_6_30</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_5m_PTA4_WDDCr_10_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR5_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_1m_LTA_MISO_52_9_26_52_14_12_26_9</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_1m_PTA4_WDDCr_30_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR7_60_5</t>
+    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_FREEr_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR4_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR8_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2he_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_LOBSTER_3_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DCh_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA2_DDCde_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_STAML1_XGBR2h_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2e_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1s_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDVCr_9</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3_20_20_0.03</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DC_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2s_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3s_20_20_0.03</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_5m_PTA4_WDDCrVG_10_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_5m_PTA2_DDCde_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDVCr_9</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_LOBSTER_3_0.5</t>
+    <t>OT_DOGEUSDT_30m_PTA4_WDDCr_4_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDDCrE_10_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_PTA4_WLISICA_9_2_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDDCrVG_9_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA8_LOBSTER_7_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA8_WDOBBY_FREEr_8_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_WDOBBY_FREEr_4_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDVCr_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA9_CRAB_10_0.5_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA9_RAB_10_2_5_0.5</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_15m_PTA8_OBBY_4_0.5</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDDCde_20_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WLISICA_7_2_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA10_MAGIC_95_20_4</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA8_OBBY_FREEr_7_0.5</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_1m_LTA_BORSCH_10_3</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR4_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA4_WDDCrE_10_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR8_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2he_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_FREEr_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA8_WDOBBY_FREEr_8_0.5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA9_CRAB_10_0.5_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA4_WDVCr_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA10_MAGIC_95_20_4</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA4_WDDCr_4_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDDCde_20_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DCh_5_5</t>
+    <t>OT_DOGEUSDT_5m_LTA_BORSCH_3_3</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA2_DDCrVG_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_LTA_APHOGA_10_1</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA6_KAMAZ2_5_20_21_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA2_DVCr_10</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_30m_PTA6_KAMA_5_20</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_30m_STAML1_XGBR2h_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2e_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1s_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDDCrVG_9_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA8_OBBY_FREEr_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA6_KAMAZ2_5_20_21_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3_20_20_0.03</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DC_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_LTA_BORSCH_3_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_WDOBBY_FREEr_4_0.5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2s_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3s_20_20_0.03</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WLISICA_7_2_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA8_LOBSTER_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA2_DDCrVG_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA9_RAB_10_2_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_LTA_APHOGA_10_1</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA2_DVCr_10</t>
+    <t>OT_DOGEUSDT_30m_PTA6_KAMA2_5_5_21_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_LTA_TOMYAM_50</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_15m_LTA_RAMEN_50_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_LTA_TOMYAM_50</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA6_KAMA2_5_5_21_30</t>
   </si>
 </sst>
 </file>
@@ -565,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,22 +619,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.01477</v>
+        <v>0.022609999999997</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>9.117392724012664</v>
+        <v>13.40131809506936</v>
       </c>
       <c r="F2">
-        <v>7.037392724012664</v>
+        <v>9.161318095069355</v>
       </c>
       <c r="G2">
-        <v>4.957392724012665</v>
+        <v>4.921318095069357</v>
       </c>
       <c r="H2">
-        <v>2.877392724012664</v>
+        <v>0.6813180950693567</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -636,22 +645,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.016149999999998</v>
+        <v>0.017879999999999</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>9.662658122784997</v>
+        <v>10.53136387679281</v>
       </c>
       <c r="F3">
-        <v>7.262658122784996</v>
+        <v>5.091363876792808</v>
       </c>
       <c r="G3">
-        <v>4.862658122784998</v>
+        <v>-0.34863612320719</v>
       </c>
       <c r="H3">
-        <v>2.462658122784998</v>
+        <v>-5.78863612320719</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -662,22 +671,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.0131</v>
+        <v>0.007549999999999</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>8.30641485721711</v>
+        <v>4.91100873716363</v>
       </c>
       <c r="F4">
-        <v>5.826414857217109</v>
+        <v>2.271008737163631</v>
       </c>
       <c r="G4">
-        <v>3.346414857217113</v>
+        <v>-0.368991262836369</v>
       </c>
       <c r="H4">
-        <v>0.8664148572171086</v>
+        <v>-3.008991262836368</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -688,22 +697,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.01118</v>
+        <v>-0.00117</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>6.846081862567488</v>
+        <v>-0.6902451255125217</v>
       </c>
       <c r="F5">
-        <v>4.846081862567489</v>
+        <v>-0.8502451255125217</v>
       </c>
       <c r="G5">
-        <v>2.846081862567489</v>
+        <v>-1.010245125512522</v>
       </c>
       <c r="H5">
-        <v>0.8460818625674902</v>
+        <v>-1.170245125512521</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -714,22 +723,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.007390000000001</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>4.536068155337998</v>
+        <v>5.054734524391757</v>
       </c>
       <c r="F6">
-        <v>2.616068155337998</v>
+        <v>2.014734524391757</v>
       </c>
       <c r="G6">
-        <v>0.696068155337997</v>
+        <v>-1.025265475608241</v>
       </c>
       <c r="H6">
-        <v>-1.223931844662002</v>
+        <v>-4.065265475608241</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -740,22 +749,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.009209999999999999</v>
+        <v>0.009200000000000921</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>5.76263179599093</v>
+        <v>6.022695174651145</v>
       </c>
       <c r="F7">
-        <v>3.12263179599093</v>
+        <v>2.102695174651144</v>
       </c>
       <c r="G7">
-        <v>0.4826317959909314</v>
+        <v>-1.817304825348854</v>
       </c>
       <c r="H7">
-        <v>-2.15736820400907</v>
+        <v>-5.737304825348856</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -766,22 +775,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.007549999999999</v>
+        <v>0.006160000000001909</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>4.91100873716363</v>
+        <v>3.891961086431492</v>
       </c>
       <c r="F8">
-        <v>2.271008737163631</v>
+        <v>0.6119610864314939</v>
       </c>
       <c r="G8">
-        <v>-0.368991262836369</v>
+        <v>-2.668038913568506</v>
       </c>
       <c r="H8">
-        <v>-3.008991262836368</v>
+        <v>-5.948038913568507</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -792,22 +801,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>-0.00117</v>
+        <v>-0.002190000000001</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>-0.6902451255125217</v>
+        <v>-0.8204486709798262</v>
       </c>
       <c r="F9">
-        <v>-0.8502451255125217</v>
+        <v>-1.780448670979826</v>
       </c>
       <c r="G9">
-        <v>-1.010245125512522</v>
+        <v>-2.740448670979829</v>
       </c>
       <c r="H9">
-        <v>-1.170245125512521</v>
+        <v>-3.700448670979827</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -818,22 +827,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.0005499999999990001</v>
+        <v>-0.002469999999998999</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>-0.3294325128062192</v>
+        <v>-1.459856472693062</v>
       </c>
       <c r="F10">
-        <v>-0.9694325128062196</v>
+        <v>-2.819856472693062</v>
       </c>
       <c r="G10">
-        <v>-1.609432512806219</v>
+        <v>-4.179856472693063</v>
       </c>
       <c r="H10">
-        <v>-2.249432512806218</v>
+        <v>-5.539856472693061</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -844,22 +853,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>-0.002190000000001</v>
+        <v>0.006089999999999998</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>-0.8204486709798262</v>
+        <v>3.96392640358052</v>
       </c>
       <c r="F11">
-        <v>-1.780448670979826</v>
+        <v>-0.4360735964194804</v>
       </c>
       <c r="G11">
-        <v>-2.740448670979829</v>
+        <v>-4.836073596419479</v>
       </c>
       <c r="H11">
-        <v>-3.700448670979827</v>
+        <v>-9.23607359641948</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -870,22 +879,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>-0.0006999999999999997</v>
+        <v>0.00259</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>-0.3786389028741733</v>
+        <v>1.615029174387632</v>
       </c>
       <c r="F12">
-        <v>-2.538638902874173</v>
+        <v>-1.664970825612368</v>
       </c>
       <c r="G12">
-        <v>-4.698638902874174</v>
+        <v>-4.944970825612368</v>
       </c>
       <c r="H12">
-        <v>-6.858638902874174</v>
+        <v>-8.224970825612367</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -896,22 +905,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.0005299999999990347</v>
+        <v>0.001670000000002001</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>0.6553939884224782</v>
+        <v>1.170962025278155</v>
       </c>
       <c r="F13">
-        <v>-2.064606011577523</v>
+        <v>-2.029037974721844</v>
       </c>
       <c r="G13">
-        <v>-4.784606011577523</v>
+        <v>-5.229037974721846</v>
       </c>
       <c r="H13">
-        <v>-7.504606011577521</v>
+        <v>-8.429037974721844</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -922,22 +931,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.005950000000002001</v>
+        <v>0.01449</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E14">
-        <v>-3.260013248019759</v>
+        <v>8.831488824679145</v>
       </c>
       <c r="F14">
-        <v>-4.380013248019759</v>
+        <v>1.391488824679147</v>
       </c>
       <c r="G14">
-        <v>-5.500013248019759</v>
+        <v>-6.048511175320852</v>
       </c>
       <c r="H14">
-        <v>-6.620013248019758</v>
+        <v>-13.48851117532085</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -948,22 +957,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.003860000000000001</v>
+        <v>-0.00034</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>-2.249086686180255</v>
+        <v>-0.03031614027755047</v>
       </c>
       <c r="F15">
-        <v>-4.009086686180255</v>
+        <v>-3.230316140277552</v>
       </c>
       <c r="G15">
-        <v>-5.769086686180254</v>
+        <v>-6.430316140277551</v>
       </c>
       <c r="H15">
-        <v>-7.529086686180255</v>
+        <v>-9.63031614027755</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -974,22 +983,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.003620000000002002</v>
+        <v>-0.004309999999999</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>1.885140246102749</v>
+        <v>-2.442929387675859</v>
       </c>
       <c r="F16">
-        <v>-2.034859753897251</v>
+        <v>-4.682929387675859</v>
       </c>
       <c r="G16">
-        <v>-5.95485975389725</v>
+        <v>-6.922929387675858</v>
       </c>
       <c r="H16">
-        <v>-9.874859753897251</v>
+        <v>-9.162929387675858</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1000,22 +1009,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.010080000000002</v>
+        <v>-0.006059999999998</v>
       </c>
       <c r="D17">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>6.272649667388354</v>
+        <v>-3.869652097511867</v>
       </c>
       <c r="F17">
-        <v>-0.04735033261164734</v>
+        <v>-5.789652097511865</v>
       </c>
       <c r="G17">
-        <v>-6.367350332611645</v>
+        <v>-7.709652097511865</v>
       </c>
       <c r="H17">
-        <v>-12.68735033261165</v>
+        <v>-9.629652097511865</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1026,22 +1035,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.00034</v>
+        <v>-0.006330000000000001</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>-0.03031614027755047</v>
+        <v>-3.686278459507904</v>
       </c>
       <c r="F18">
-        <v>-3.230316140277552</v>
+        <v>-5.766278459507904</v>
       </c>
       <c r="G18">
-        <v>-6.430316140277551</v>
+        <v>-7.846278459507904</v>
       </c>
       <c r="H18">
-        <v>-9.63031614027755</v>
+        <v>-9.926278459507905</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1052,22 +1061,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.003699999999999001</v>
+        <v>-0.005449999999998001</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>-1.930796109428397</v>
+        <v>-3.18169311716886</v>
       </c>
       <c r="F19">
-        <v>-4.250796109428397</v>
+        <v>-5.901693117168859</v>
       </c>
       <c r="G19">
-        <v>-6.570796109428397</v>
+        <v>-8.621693117168858</v>
       </c>
       <c r="H19">
-        <v>-8.890796109428397</v>
+        <v>-11.34169311716886</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1078,22 +1087,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.004309999999999</v>
+        <v>-0.006520000000001001</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>-2.442929387675859</v>
+        <v>-3.679354703184436</v>
       </c>
       <c r="F20">
-        <v>-4.682929387675859</v>
+        <v>-6.239354703184436</v>
       </c>
       <c r="G20">
-        <v>-6.922929387675858</v>
+        <v>-8.799354703184434</v>
       </c>
       <c r="H20">
-        <v>-9.162929387675858</v>
+        <v>-11.35935470318443</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1104,22 +1113,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.006059999999998</v>
+        <v>-0.00516</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>-3.869652097511867</v>
+        <v>-2.990351833148366</v>
       </c>
       <c r="F21">
-        <v>-5.789652097511865</v>
+        <v>-6.350351833148366</v>
       </c>
       <c r="G21">
-        <v>-7.709652097511865</v>
+        <v>-9.710351833148366</v>
       </c>
       <c r="H21">
-        <v>-9.629652097511865</v>
+        <v>-13.07035183314837</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1130,22 +1139,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>-0.006330000000000001</v>
+        <v>-0.001780000000000967</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E22">
-        <v>-3.686278459507904</v>
+        <v>-0.7185650266711257</v>
       </c>
       <c r="F22">
-        <v>-5.766278459507904</v>
+        <v>-5.278565026671128</v>
       </c>
       <c r="G22">
-        <v>-7.846278459507904</v>
+        <v>-9.838565026671127</v>
       </c>
       <c r="H22">
-        <v>-9.926278459507905</v>
+        <v>-14.39856502667113</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1156,22 +1165,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.0006700000000000005</v>
+        <v>-0.011829999999999</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>0.6223242272445688</v>
+        <v>-6.962335342839714</v>
       </c>
       <c r="F23">
-        <v>-3.617675772755431</v>
+        <v>-8.482335342839715</v>
       </c>
       <c r="G23">
-        <v>-7.85767577275543</v>
+        <v>-10.00233534283971</v>
       </c>
       <c r="H23">
-        <v>-12.09767577275543</v>
+        <v>-11.52233534283971</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1182,22 +1191,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.002669999999999</v>
+        <v>-0.01368</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>-1.230394692886984</v>
+        <v>-7.892089020193643</v>
       </c>
       <c r="F24">
-        <v>-4.670394692886984</v>
+        <v>-9.012089020193644</v>
       </c>
       <c r="G24">
-        <v>-8.110394692886983</v>
+        <v>-10.13208902019364</v>
       </c>
       <c r="H24">
-        <v>-11.55039469288698</v>
+        <v>-11.25208902019364</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1208,22 +1217,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>-0.008189999999999</v>
+        <v>-0.008459999999998</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>-4.543455812886727</v>
+        <v>-5.348736779039985</v>
       </c>
       <c r="F25">
-        <v>-6.623455812886727</v>
+        <v>-7.748736779039987</v>
       </c>
       <c r="G25">
-        <v>-8.703455812886725</v>
+        <v>-10.14873677903999</v>
       </c>
       <c r="H25">
-        <v>-10.78345581288673</v>
+        <v>-12.54873677903998</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1234,22 +1243,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>-0.006520000000001001</v>
+        <v>-0.012230000000001</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>-3.679354703184436</v>
+        <v>-6.947492648873347</v>
       </c>
       <c r="F26">
-        <v>-6.239354703184436</v>
+        <v>-8.787492648873346</v>
       </c>
       <c r="G26">
-        <v>-8.799354703184434</v>
+        <v>-10.62749264887335</v>
       </c>
       <c r="H26">
-        <v>-11.35935470318443</v>
+        <v>-12.46749264887334</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1260,22 +1269,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.007599999999998001</v>
+        <v>-0.011740000000001</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>-4.504381945629341</v>
+        <v>-6.63466255160189</v>
       </c>
       <c r="F27">
-        <v>-6.664381945629343</v>
+        <v>-8.714662551601887</v>
       </c>
       <c r="G27">
-        <v>-8.824381945629341</v>
+        <v>-10.79466255160189</v>
       </c>
       <c r="H27">
-        <v>-10.98438194562934</v>
+        <v>-12.87466255160189</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1286,22 +1295,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.010569999999999</v>
+        <v>-0.016660000000001</v>
       </c>
       <c r="D28">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>6.327077867269686</v>
+        <v>-9.945472571342775</v>
       </c>
       <c r="F28">
-        <v>-1.272922132730314</v>
+        <v>-10.74547257134277</v>
       </c>
       <c r="G28">
-        <v>-8.87292213273032</v>
+        <v>-11.54547257134277</v>
       </c>
       <c r="H28">
-        <v>-16.47292213273031</v>
+        <v>-12.34547257134277</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1312,22 +1321,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>-0.010789999999998</v>
+        <v>-0.01423</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29">
-        <v>-6.350464835161712</v>
+        <v>-8.630263465967149</v>
       </c>
       <c r="F29">
-        <v>-7.63046483516171</v>
+        <v>-10.15026346596715</v>
       </c>
       <c r="G29">
-        <v>-8.910464835161712</v>
+        <v>-11.67026346596715</v>
       </c>
       <c r="H29">
-        <v>-10.19046483516171</v>
+        <v>-13.19026346596715</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1338,22 +1347,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>-0.004739999999997999</v>
+        <v>-0.01953</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>-2.785060372172464</v>
+        <v>-11.39589472921763</v>
       </c>
       <c r="F30">
-        <v>-5.905060372172464</v>
+        <v>-11.87589472921762</v>
       </c>
       <c r="G30">
-        <v>-9.025060372172463</v>
+        <v>-12.35589472921762</v>
       </c>
       <c r="H30">
-        <v>-12.14506037217246</v>
+        <v>-12.83589472921762</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1364,22 +1373,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>-0.00516</v>
+        <v>-0.01967</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>-2.990351833148366</v>
+        <v>-11.48244982564445</v>
       </c>
       <c r="F31">
-        <v>-6.350351833148366</v>
+        <v>-11.96244982564445</v>
       </c>
       <c r="G31">
-        <v>-9.710351833148366</v>
+        <v>-12.44244982564445</v>
       </c>
       <c r="H31">
-        <v>-13.07035183314837</v>
+        <v>-12.92244982564445</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1390,22 +1399,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.005199999999998999</v>
+        <v>-0.01864</v>
       </c>
       <c r="D32">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>2.610628008153204</v>
+        <v>-11.13000490934946</v>
       </c>
       <c r="F32">
-        <v>-3.629371991846797</v>
+        <v>-11.93000490934946</v>
       </c>
       <c r="G32">
-        <v>-9.869371991846798</v>
+        <v>-12.73000490934946</v>
       </c>
       <c r="H32">
-        <v>-16.1093719918468</v>
+        <v>-13.53000490934946</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1416,22 +1425,22 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>-0.011829999999999</v>
+        <v>-0.010919999999999</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E33">
-        <v>-6.962335342839714</v>
+        <v>-6.378969716493926</v>
       </c>
       <c r="F33">
-        <v>-8.482335342839715</v>
+        <v>-9.818969716493926</v>
       </c>
       <c r="G33">
-        <v>-10.00233534283971</v>
+        <v>-13.25896971649393</v>
       </c>
       <c r="H33">
-        <v>-11.52233534283971</v>
+        <v>-16.69896971649393</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1442,22 +1451,22 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>-0.01368</v>
+        <v>-0.016269999999998</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>-7.892089020193643</v>
+        <v>-9.562558848871769</v>
       </c>
       <c r="F34">
-        <v>-9.012089020193644</v>
+        <v>-11.72255884887177</v>
       </c>
       <c r="G34">
-        <v>-10.13208902019364</v>
+        <v>-13.88255884887177</v>
       </c>
       <c r="H34">
-        <v>-11.25208902019364</v>
+        <v>-16.04255884887177</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1468,22 +1477,22 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>-0.008459999999998</v>
+        <v>-0.012069999999997</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E35">
-        <v>-5.348736779039985</v>
+        <v>-6.841625584987611</v>
       </c>
       <c r="F35">
-        <v>-7.748736779039987</v>
+        <v>-10.60162558498761</v>
       </c>
       <c r="G35">
-        <v>-10.14873677903999</v>
+        <v>-14.36162558498761</v>
       </c>
       <c r="H35">
-        <v>-12.54873677903998</v>
+        <v>-18.12162558498761</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1494,22 +1503,22 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>-0.014880000000002</v>
+        <v>0.006799999999999001</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="E36">
-        <v>-8.549879375343876</v>
+        <v>4.05060277569478</v>
       </c>
       <c r="F36">
-        <v>-9.509879375343875</v>
+        <v>-5.30939722430522</v>
       </c>
       <c r="G36">
-        <v>-10.46987937534388</v>
+        <v>-14.66939722430522</v>
       </c>
       <c r="H36">
-        <v>-11.42987937534387</v>
+        <v>-24.02939722430522</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1520,22 +1529,22 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>-0.011740000000001</v>
+        <v>-0.01969000000000098</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>-6.63466255160189</v>
+        <v>-11.36692194313062</v>
       </c>
       <c r="F37">
-        <v>-8.714662551601887</v>
+        <v>-13.04692194313062</v>
       </c>
       <c r="G37">
-        <v>-10.79466255160189</v>
+        <v>-14.72692194313062</v>
       </c>
       <c r="H37">
-        <v>-12.87466255160189</v>
+        <v>-16.40692194313062</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1546,22 +1555,22 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>-0.0005999999999989868</v>
+        <v>-0.014500000000001</v>
       </c>
       <c r="D38">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E38">
-        <v>-0.5977768505039629</v>
+        <v>-8.618328975910302</v>
       </c>
       <c r="F38">
-        <v>-5.797776850503963</v>
+        <v>-12.1383289759103</v>
       </c>
       <c r="G38">
-        <v>-10.99777685050396</v>
+        <v>-15.6583289759103</v>
       </c>
       <c r="H38">
-        <v>-16.19777685050396</v>
+        <v>-19.1783289759103</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1572,22 +1581,22 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>0.002579999999999</v>
+        <v>-0.007709999999998</v>
       </c>
       <c r="D39">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E39">
-        <v>1.088109943111287</v>
+        <v>-4.244776166581896</v>
       </c>
       <c r="F39">
-        <v>-4.991890056888712</v>
+        <v>-10.0847761665819</v>
       </c>
       <c r="G39">
-        <v>-11.07189005688871</v>
+        <v>-15.92477616658189</v>
       </c>
       <c r="H39">
-        <v>-17.15189005688871</v>
+        <v>-21.7647761665819</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1598,22 +1607,22 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>-0.016660000000001</v>
+        <v>-0.016209999999998</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>-9.945472571342775</v>
+        <v>-9.631061441499106</v>
       </c>
       <c r="F40">
-        <v>-10.74547257134277</v>
+        <v>-12.91106144149911</v>
       </c>
       <c r="G40">
-        <v>-11.54547257134277</v>
+        <v>-16.19106144149911</v>
       </c>
       <c r="H40">
-        <v>-12.34547257134277</v>
+        <v>-19.47106144149911</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1624,22 +1633,22 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>-0.01423</v>
+        <v>-0.014819999999996</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E41">
-        <v>-8.630263465967149</v>
+        <v>-8.771953360903378</v>
       </c>
       <c r="F41">
-        <v>-10.15026346596715</v>
+        <v>-12.53195336090338</v>
       </c>
       <c r="G41">
-        <v>-11.67026346596715</v>
+        <v>-16.29195336090338</v>
       </c>
       <c r="H41">
-        <v>-13.19026346596715</v>
+        <v>-20.05195336090338</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1650,22 +1659,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>-0.006089999999997001</v>
+        <v>-0.0188</v>
       </c>
       <c r="D42">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>-3.431130256846162</v>
+        <v>-10.69594927139974</v>
       </c>
       <c r="F42">
-        <v>-7.671130256846161</v>
+        <v>-13.89594927139974</v>
       </c>
       <c r="G42">
-        <v>-11.91113025684616</v>
+        <v>-17.09594927139974</v>
       </c>
       <c r="H42">
-        <v>-16.15113025684616</v>
+        <v>-20.29594927139974</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1676,22 +1685,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>-0.014569999999997</v>
+        <v>-0.018809999999999</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>-8.683553734092644</v>
+        <v>-11.45588836231128</v>
       </c>
       <c r="F43">
-        <v>-10.36355373409264</v>
+        <v>-14.57588836231128</v>
       </c>
       <c r="G43">
-        <v>-12.04355373409264</v>
+        <v>-17.69588836231128</v>
       </c>
       <c r="H43">
-        <v>-13.72355373409264</v>
+        <v>-20.81588836231128</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1702,22 +1711,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>-0.01953</v>
+        <v>-0.003799999999996998</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="E44">
-        <v>-11.39589472921763</v>
+        <v>-2.49304488114156</v>
       </c>
       <c r="F44">
-        <v>-11.87589472921762</v>
+        <v>-10.25304488114156</v>
       </c>
       <c r="G44">
-        <v>-12.35589472921762</v>
+        <v>-18.01304488114156</v>
       </c>
       <c r="H44">
-        <v>-12.83589472921762</v>
+        <v>-25.77304488114156</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1728,22 +1737,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>-0.01967</v>
+        <v>-0.005969999999996999</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E45">
-        <v>-11.48244982564445</v>
+        <v>-3.557311285105826</v>
       </c>
       <c r="F45">
-        <v>-11.96244982564445</v>
+        <v>-10.99731128510583</v>
       </c>
       <c r="G45">
-        <v>-12.44244982564445</v>
+        <v>-18.43731128510582</v>
       </c>
       <c r="H45">
-        <v>-12.92244982564445</v>
+        <v>-25.87731128510582</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1754,22 +1763,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>-0.01864</v>
+        <v>-0.029779999999996</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>-11.13000490934946</v>
+        <v>-17.52562151284156</v>
       </c>
       <c r="F46">
-        <v>-11.93000490934946</v>
+        <v>-19.36562151284156</v>
       </c>
       <c r="G46">
-        <v>-12.73000490934946</v>
+        <v>-21.20562151284156</v>
       </c>
       <c r="H46">
-        <v>-13.53000490934946</v>
+        <v>-23.04562151284156</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1780,22 +1789,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>-0.022839999999998</v>
+        <v>0.010410000000001</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="E47">
-        <v>-13.44374486804772</v>
+        <v>6.298621429825812</v>
       </c>
       <c r="F47">
-        <v>-14.48374486804772</v>
+        <v>-7.861378570174189</v>
       </c>
       <c r="G47">
-        <v>-15.52374486804772</v>
+        <v>-22.02137857017419</v>
       </c>
       <c r="H47">
-        <v>-16.56374486804772</v>
+        <v>-36.18137857017418</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1806,22 +1815,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>-0.021669999999999</v>
+        <v>-0.008079999999997986</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="E48">
-        <v>-12.83996133991607</v>
+        <v>-5.203292348712878</v>
       </c>
       <c r="F48">
-        <v>-14.91996133991607</v>
+        <v>-13.76329234871288</v>
       </c>
       <c r="G48">
-        <v>-16.99996133991607</v>
+        <v>-22.32329234871288</v>
       </c>
       <c r="H48">
-        <v>-19.07996133991607</v>
+        <v>-30.88329234871287</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1832,22 +1841,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>-0.02267</v>
+        <v>0.0004400000000030005</v>
       </c>
       <c r="D49">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="E49">
-        <v>-13.14463527530461</v>
+        <v>0.6328992396090882</v>
       </c>
       <c r="F49">
-        <v>-16.50463527530461</v>
+        <v>-11.36710076039091</v>
       </c>
       <c r="G49">
-        <v>-19.86463527530461</v>
+        <v>-23.36710076039091</v>
       </c>
       <c r="H49">
-        <v>-23.22463527530461</v>
+        <v>-35.36710076039091</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1858,22 +1867,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>-0.027969999999999</v>
+        <v>-0.017759999999995</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E50">
-        <v>-16.72030107478917</v>
+        <v>-10.18315848255481</v>
       </c>
       <c r="F50">
-        <v>-18.56030107478917</v>
+        <v>-17.4631584825548</v>
       </c>
       <c r="G50">
-        <v>-20.40030107478917</v>
+        <v>-24.74315848255481</v>
       </c>
       <c r="H50">
-        <v>-22.24030107478917</v>
+        <v>-32.02315848255481</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1884,22 +1893,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>-0.024229999999999</v>
+        <v>-0.0216</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E51">
-        <v>-15.13244960221657</v>
+        <v>-12.51242607398024</v>
       </c>
       <c r="F51">
-        <v>-18.73244960221657</v>
+        <v>-18.99242607398024</v>
       </c>
       <c r="G51">
-        <v>-22.33244960221657</v>
+        <v>-25.47242607398024</v>
       </c>
       <c r="H51">
-        <v>-25.93244960221656</v>
+        <v>-31.95242607398025</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1910,22 +1919,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>-0.011250000000001</v>
+        <v>-0.03209999999999699</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E52">
-        <v>-6.677502708513143</v>
+        <v>-19.7372512617334</v>
       </c>
       <c r="F52">
-        <v>-14.51750270851314</v>
+        <v>-25.0972512617334</v>
       </c>
       <c r="G52">
-        <v>-22.35750270851314</v>
+        <v>-30.4572512617334</v>
       </c>
       <c r="H52">
-        <v>-30.19750270851314</v>
+        <v>-35.8172512617334</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1936,22 +1945,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>-0.017229999999998</v>
+        <v>0.00282</v>
       </c>
       <c r="D53">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="E53">
-        <v>-9.653986300096088</v>
+        <v>1.175804691608378</v>
       </c>
       <c r="F53">
-        <v>-16.69398630009609</v>
+        <v>-14.82419530839162</v>
       </c>
       <c r="G53">
-        <v>-23.73398630009609</v>
+        <v>-30.82419530839161</v>
       </c>
       <c r="H53">
-        <v>-30.77398630009608</v>
+        <v>-46.82419530839162</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1962,22 +1971,22 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>-0.023639999999998</v>
+        <v>-0.008429999999999998</v>
       </c>
       <c r="D54">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="E54">
-        <v>-14.01433742909358</v>
+        <v>-4.977957817633947</v>
       </c>
       <c r="F54">
-        <v>-19.9343374290936</v>
+        <v>-18.57795781763395</v>
       </c>
       <c r="G54">
-        <v>-25.85433742909358</v>
+        <v>-32.17795781763395</v>
       </c>
       <c r="H54">
-        <v>-31.77433742909358</v>
+        <v>-45.77795781763395</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1988,26 +1997,104 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>-0.037169999999997</v>
+        <v>0.002359999999999999</v>
       </c>
       <c r="D55">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="E55">
-        <v>-21.71125518161967</v>
+        <v>0.9483631137198847</v>
       </c>
       <c r="F55">
-        <v>-32.03125518161967</v>
+        <v>-17.77163688628012</v>
       </c>
       <c r="G55">
-        <v>-42.35125518161967</v>
+        <v>-36.49163688628011</v>
       </c>
       <c r="H55">
-        <v>-52.67125518161967</v>
+        <v>-55.21163688628012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>-0.039139999999997</v>
+      </c>
+      <c r="D56">
+        <v>204</v>
+      </c>
+      <c r="E56">
+        <v>-22.85505930850791</v>
+      </c>
+      <c r="F56">
+        <v>-39.1750593085079</v>
+      </c>
+      <c r="G56">
+        <v>-55.4950593085079</v>
+      </c>
+      <c r="H56">
+        <v>-71.81505930850791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>-0.02355999999999803</v>
+      </c>
+      <c r="D57">
+        <v>476</v>
+      </c>
+      <c r="E57">
+        <v>-13.96842059367733</v>
+      </c>
+      <c r="F57">
+        <v>-52.04842059367734</v>
+      </c>
+      <c r="G57">
+        <v>-90.12842059367732</v>
+      </c>
+      <c r="H57">
+        <v>-128.2084205936773</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>-0.021639999999998</v>
+      </c>
+      <c r="D58">
+        <v>971</v>
+      </c>
+      <c r="E58">
+        <v>-12.17642148456993</v>
+      </c>
+      <c r="F58">
+        <v>-89.85642148456992</v>
+      </c>
+      <c r="G58">
+        <v>-167.5364214845699</v>
+      </c>
+      <c r="H58">
+        <v>-245.2164214845699</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B55">
+  <conditionalFormatting sqref="B2:B58">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2022,7 +2109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C55">
+  <conditionalFormatting sqref="C2:C58">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2037,7 +2124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D55">
+  <conditionalFormatting sqref="D2:D58">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2052,7 +2139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E55">
+  <conditionalFormatting sqref="E2:E58">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2067,7 +2154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F55">
+  <conditionalFormatting sqref="F2:F58">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2082,7 +2169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G55">
+  <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2097,7 +2184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H55">
+  <conditionalFormatting sqref="H2:H58">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Total_All_Test_Result__bitget.xlsx
+++ b/Total_All_Test_Result__bitget.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -37,154 +37,184 @@
     <t>total_max_fee_percent</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_5m_OGTA4_DOG_10_15</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_LTA_OKROSHKA_20_65</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_LTA_KROSH_20_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_LTA_KROSH_10_35</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_15m_LTA_APHOBO_10_1</t>
   </si>
   <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR5_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_PTA4_WDDCr_30_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_LTA_OKROSHKA_15_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_LTA_MISO_52_9_26_52_14_12_26_9</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_OGTA4_DOG_15_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_OGTA4_DOG_45_25</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA2_DDCrWork_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR7_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDDCr_5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_OGTA4_DOG_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA2_LISICA_7_2</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDVCr_9</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_LTA_KROSH_45_35</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_LTA_OKROSHKA_5_60</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDDCr_10_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR4_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR8_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2he_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDDCrVG_9_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDDCr_6_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DCh_5_5</t>
+  </si>
+  <si>
     <t>OT_DOGEUSDT_1m_PTA4_WDDCr_9_20</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR5_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_1m_LTA_MISO_52_9_26_52_14_12_26_9</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA2_LISICA_7_2</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA2_DDCrWork_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDDCr_5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR7_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_1m_PTA4_WDDCr_30_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_DOBBY_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA4_WDDCr_6_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA4_WDDCr_10_30</t>
+    <t>OT_DOGEUSDT_30m_STAML1_XGBR2h_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2e_5_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1s_60_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_60_5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3_20_20_0.03</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DC_5_5</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_30m_PTA8_DOBBY_FREEr_4_0.5</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR4_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR8_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2he_5_5</t>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2s_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2_5_20</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3s_20_20_0.03</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_30m_PTA8_LOBSTER_3_0.5</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DCh_5_5</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_5m_PTA2_DDCde_20</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_30m_STAML1_XGBR2h_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2e_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_STAML1_PROPHET1s_60_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDVCr_9</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_XGBR2_60_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3_20_20_0.03</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_STAML1_XGBR2_DC_5_5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2s_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET2_5_20</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_STAML1_PROPHET3s_20_20_0.03</t>
+    <t>OT_DOGEUSDT_30m_PTA4_WDDCr_4_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDDCrE_10_30</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_5m_PTA4_WDDCrVG_10_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_30m_PTA4_WDDCr_4_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA4_WDDCrE_10_30</t>
+    <t>OT_DOGEUSDT_15m_PTA8_OBBY_4_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_30m_PTA8_WDOBBY_FREEr_4_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA8_LOBSTER_7_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA9_RAB_10_2_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WDDCde_20_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA4_WLISICA_7_2_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA9_CRAB_10_0.5_5_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA8_WDOBBY_FREEr_8_0.5_30</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_5m_PTA4_WDVCr_10</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_15m_PTA8_OBBY_FREEr_7_0.5</t>
+  </si>
+  <si>
+    <t>OT_DOGEUSDT_1m_LTA_BORSCH_10_3</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_1m_PTA4_WLISICA_9_2_30</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDDCrVG_9_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA8_LOBSTER_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA8_WDOBBY_FREEr_8_0.5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_30m_PTA8_WDOBBY_FREEr_4_0.5_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA4_WDVCr_10</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA9_CRAB_10_0.5_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA9_RAB_10_2_5_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA8_OBBY_4_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WDDCde_20_30</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_15m_PTA4_WLISICA_7_2_30</t>
-  </si>
-  <si>
     <t>OT_DOGEUSDT_30m_PTA10_MAGIC_95_20_4</t>
   </si>
   <si>
-    <t>OT_DOGEUSDT_15m_PTA8_OBBY_FREEr_7_0.5</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_1m_LTA_BORSCH_10_3</t>
+    <t>OT_DOGEUSDT_5m_PTA2_DDCrVG_10</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_5m_LTA_BORSCH_3_3</t>
-  </si>
-  <si>
-    <t>OT_DOGEUSDT_5m_PTA2_DDCrVG_10</t>
   </si>
   <si>
     <t>OT_DOGEUSDT_5m_LTA_APHOGA_10_1</t>
@@ -574,14 +604,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
@@ -619,22 +649,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.022609999999997</v>
+        <v>0.01787</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>13.40131809506936</v>
+        <v>10.50931885587383</v>
       </c>
       <c r="F2">
-        <v>9.161318095069355</v>
+        <v>9.869318855873832</v>
       </c>
       <c r="G2">
-        <v>4.921318095069357</v>
+        <v>9.229318855873831</v>
       </c>
       <c r="H2">
-        <v>0.6813180950693567</v>
+        <v>8.589318855873833</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -645,22 +675,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.017879999999999</v>
+        <v>0.005259999999999001</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>10.53136387679281</v>
+        <v>3.050508740879511</v>
       </c>
       <c r="F3">
-        <v>5.091363876792808</v>
+        <v>2.650508740879511</v>
       </c>
       <c r="G3">
-        <v>-0.34863612320719</v>
+        <v>2.250508740879512</v>
       </c>
       <c r="H3">
-        <v>-5.78863612320719</v>
+        <v>1.850508740879511</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -671,22 +701,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.007549999999999</v>
+        <v>0.00402</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>4.91100873716363</v>
+        <v>2.334892186503044</v>
       </c>
       <c r="F4">
-        <v>2.271008737163631</v>
+        <v>1.854892186503044</v>
       </c>
       <c r="G4">
-        <v>-0.368991262836369</v>
+        <v>1.374892186503045</v>
       </c>
       <c r="H4">
-        <v>-3.008991262836368</v>
+        <v>0.8948921865030439</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -697,22 +727,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.00117</v>
+        <v>0.004459999999998999</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>-0.6902451255125217</v>
+        <v>2.597573013008801</v>
       </c>
       <c r="F5">
-        <v>-0.8502451255125217</v>
+        <v>1.957573013008801</v>
       </c>
       <c r="G5">
-        <v>-1.010245125512522</v>
+        <v>1.317573013008802</v>
       </c>
       <c r="H5">
-        <v>-1.170245125512521</v>
+        <v>0.677573013008802</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -723,22 +753,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.007889999999999999</v>
+        <v>0.01983999999999801</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>5.054734524391757</v>
+        <v>11.7298964267761</v>
       </c>
       <c r="F6">
-        <v>2.014734524391757</v>
+        <v>6.289896426776095</v>
       </c>
       <c r="G6">
-        <v>-1.025265475608241</v>
+        <v>0.8498964267760973</v>
       </c>
       <c r="H6">
-        <v>-4.065265475608241</v>
+        <v>-4.590103573223905</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -749,22 +779,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.009200000000000921</v>
+        <v>0.007549999999999</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>6.022695174651145</v>
+        <v>4.91100873716363</v>
       </c>
       <c r="F7">
-        <v>2.102695174651144</v>
+        <v>2.271008737163631</v>
       </c>
       <c r="G7">
-        <v>-1.817304825348854</v>
+        <v>-0.368991262836369</v>
       </c>
       <c r="H7">
-        <v>-5.737304825348856</v>
+        <v>-3.008991262836368</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -775,22 +805,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.006160000000001909</v>
+        <v>0.006720000000000002</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>3.891961086431492</v>
+        <v>3.903268951263742</v>
       </c>
       <c r="F8">
-        <v>0.6119610864314939</v>
+        <v>1.743268951263743</v>
       </c>
       <c r="G8">
-        <v>-2.668038913568506</v>
+        <v>-0.4167310487362592</v>
       </c>
       <c r="H8">
-        <v>-5.948038913568507</v>
+        <v>-2.576731048736257</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -801,22 +831,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>-0.002190000000001</v>
+        <v>0.007509999999998001</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>-0.8204486709798262</v>
+        <v>4.393253483908683</v>
       </c>
       <c r="F9">
-        <v>-1.780448670979826</v>
+        <v>1.833253483908682</v>
       </c>
       <c r="G9">
-        <v>-2.740448670979829</v>
+        <v>-0.7267465160913169</v>
       </c>
       <c r="H9">
-        <v>-3.700448670979827</v>
+        <v>-3.286746516091317</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -827,22 +857,22 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>-0.002469999999998999</v>
+        <v>-0.00117</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-1.459856472693062</v>
+        <v>-0.6902451255125217</v>
       </c>
       <c r="F10">
-        <v>-2.819856472693062</v>
+        <v>-0.8502451255125217</v>
       </c>
       <c r="G10">
-        <v>-4.179856472693063</v>
+        <v>-1.010245125512522</v>
       </c>
       <c r="H10">
-        <v>-5.539856472693061</v>
+        <v>-1.170245125512521</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -853,22 +883,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.006089999999999998</v>
+        <v>-0.001530000000001</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>3.96392640358052</v>
+        <v>-0.9660956604280009</v>
       </c>
       <c r="F11">
-        <v>-0.4360735964194804</v>
+        <v>-1.286095660428</v>
       </c>
       <c r="G11">
-        <v>-4.836073596419479</v>
+        <v>-1.606095660428001</v>
       </c>
       <c r="H11">
-        <v>-9.23607359641948</v>
+        <v>-1.926095660428001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -879,22 +909,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.00259</v>
+        <v>-0.00154</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1.615029174387632</v>
+        <v>-0.9039680676215075</v>
       </c>
       <c r="F12">
-        <v>-1.664970825612368</v>
+        <v>-1.303968067621508</v>
       </c>
       <c r="G12">
-        <v>-4.944970825612368</v>
+        <v>-1.703968067621507</v>
       </c>
       <c r="H12">
-        <v>-8.224970825612367</v>
+        <v>-2.103968067621508</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -905,22 +935,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.001670000000002001</v>
+        <v>0.01306999999999992</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E13">
-        <v>1.170962025278155</v>
+        <v>8.288175771804754</v>
       </c>
       <c r="F13">
-        <v>-2.029037974721844</v>
+        <v>3.168175771804754</v>
       </c>
       <c r="G13">
-        <v>-5.229037974721846</v>
+        <v>-1.951824228195244</v>
       </c>
       <c r="H13">
-        <v>-8.429037974721844</v>
+        <v>-7.071824228195246</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -931,22 +961,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.01449</v>
+        <v>-0.002190000000001</v>
       </c>
       <c r="D14">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>8.831488824679145</v>
+        <v>-0.8204486709798262</v>
       </c>
       <c r="F14">
-        <v>1.391488824679147</v>
+        <v>-1.780448670979826</v>
       </c>
       <c r="G14">
-        <v>-6.048511175320852</v>
+        <v>-2.740448670979829</v>
       </c>
       <c r="H14">
-        <v>-13.48851117532085</v>
+        <v>-3.700448670979827</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -957,22 +987,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>-0.00034</v>
+        <v>0.008320000000000908</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E15">
-        <v>-0.03031614027755047</v>
+        <v>5.151331850681935</v>
       </c>
       <c r="F15">
-        <v>-3.230316140277552</v>
+        <v>0.9913318506819367</v>
       </c>
       <c r="G15">
-        <v>-6.430316140277551</v>
+        <v>-3.168668149318063</v>
       </c>
       <c r="H15">
-        <v>-9.63031614027755</v>
+        <v>-7.328668149318063</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -983,22 +1013,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>-0.004309999999999</v>
+        <v>-0.00318</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>-2.442929387675859</v>
+        <v>-1.848990886924333</v>
       </c>
       <c r="F16">
-        <v>-4.682929387675859</v>
+        <v>-2.568990886924333</v>
       </c>
       <c r="G16">
-        <v>-6.922929387675858</v>
+        <v>-3.288990886924333</v>
       </c>
       <c r="H16">
-        <v>-9.162929387675858</v>
+        <v>-4.008990886924333</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1009,22 +1039,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>-0.006059999999998</v>
+        <v>0.006749999999999998</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E17">
-        <v>-3.869652097511867</v>
+        <v>4.365503057189832</v>
       </c>
       <c r="F17">
-        <v>-5.789652097511865</v>
+        <v>-0.03449694281016891</v>
       </c>
       <c r="G17">
-        <v>-7.709652097511865</v>
+        <v>-4.434496942810165</v>
       </c>
       <c r="H17">
-        <v>-9.629652097511865</v>
+        <v>-8.834496942810166</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1035,22 +1065,22 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>-0.006330000000000001</v>
+        <v>0.01107</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>-3.686278459507904</v>
+        <v>6.888891902760292</v>
       </c>
       <c r="F18">
-        <v>-5.766278459507904</v>
+        <v>1.048891902760292</v>
       </c>
       <c r="G18">
-        <v>-7.846278459507904</v>
+        <v>-4.791108097239706</v>
       </c>
       <c r="H18">
-        <v>-9.926278459507905</v>
+        <v>-10.63110809723971</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1061,22 +1091,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>-0.005449999999998001</v>
+        <v>-0.0003000000000009994</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>-3.18169311716886</v>
+        <v>-0.003293855772174642</v>
       </c>
       <c r="F19">
-        <v>-5.901693117168859</v>
+        <v>-2.483293855772172</v>
       </c>
       <c r="G19">
-        <v>-8.621693117168858</v>
+        <v>-4.963293855772173</v>
       </c>
       <c r="H19">
-        <v>-11.34169311716886</v>
+        <v>-7.443293855772171</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1087,22 +1117,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-0.006520000000001001</v>
+        <v>-0.007309999999999</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>-3.679354703184436</v>
+        <v>-4.232678194924341</v>
       </c>
       <c r="F20">
-        <v>-6.239354703184436</v>
+        <v>-4.712678194924341</v>
       </c>
       <c r="G20">
-        <v>-8.799354703184434</v>
+        <v>-5.192678194924341</v>
       </c>
       <c r="H20">
-        <v>-11.35935470318443</v>
+        <v>-5.672678194924341</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1113,22 +1143,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-0.00516</v>
+        <v>-0.005779999999998999</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>-2.990351833148366</v>
+        <v>-3.385207981967403</v>
       </c>
       <c r="F21">
-        <v>-6.350351833148366</v>
+        <v>-4.425207981967403</v>
       </c>
       <c r="G21">
-        <v>-9.710351833148366</v>
+        <v>-5.465207981967402</v>
       </c>
       <c r="H21">
-        <v>-13.07035183314837</v>
+        <v>-6.505207981967402</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1139,22 +1169,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>-0.001780000000000967</v>
+        <v>0.003950000000001</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22">
-        <v>-0.7185650266711257</v>
+        <v>2.491270056490933</v>
       </c>
       <c r="F22">
-        <v>-5.278565026671128</v>
+        <v>-1.748729943509066</v>
       </c>
       <c r="G22">
-        <v>-9.838565026671127</v>
+        <v>-5.988729943509068</v>
       </c>
       <c r="H22">
-        <v>-14.39856502667113</v>
+        <v>-10.22872994350907</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1165,22 +1195,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>-0.011829999999999</v>
+        <v>-0.00034</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>-6.962335342839714</v>
+        <v>-0.03031614027755047</v>
       </c>
       <c r="F23">
-        <v>-8.482335342839715</v>
+        <v>-3.230316140277552</v>
       </c>
       <c r="G23">
-        <v>-10.00233534283971</v>
+        <v>-6.430316140277551</v>
       </c>
       <c r="H23">
-        <v>-11.52233534283971</v>
+        <v>-9.63031614027755</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1191,22 +1221,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>-0.01368</v>
+        <v>-0.004309999999999</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E24">
-        <v>-7.892089020193643</v>
+        <v>-2.442929387675859</v>
       </c>
       <c r="F24">
-        <v>-9.012089020193644</v>
+        <v>-4.682929387675859</v>
       </c>
       <c r="G24">
-        <v>-10.13208902019364</v>
+        <v>-6.922929387675858</v>
       </c>
       <c r="H24">
-        <v>-11.25208902019364</v>
+        <v>-9.162929387675858</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1217,22 +1247,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>-0.008459999999998</v>
+        <v>-0.006059999999998</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>-5.348736779039985</v>
+        <v>-3.869652097511867</v>
       </c>
       <c r="F25">
-        <v>-7.748736779039987</v>
+        <v>-5.789652097511865</v>
       </c>
       <c r="G25">
-        <v>-10.14873677903999</v>
+        <v>-7.709652097511865</v>
       </c>
       <c r="H25">
-        <v>-12.54873677903998</v>
+        <v>-9.629652097511865</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1243,22 +1273,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>-0.012230000000001</v>
+        <v>-0.00633</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>-6.947492648873347</v>
+        <v>-3.686278459507904</v>
       </c>
       <c r="F26">
-        <v>-8.787492648873346</v>
+        <v>-5.766278459507904</v>
       </c>
       <c r="G26">
-        <v>-10.62749264887335</v>
+        <v>-7.846278459507903</v>
       </c>
       <c r="H26">
-        <v>-12.46749264887334</v>
+        <v>-9.926278459507904</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1269,22 +1299,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>-0.011740000000001</v>
+        <v>-0.006540000000000974</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E27">
-        <v>-6.63466255160189</v>
+        <v>-3.715158520147142</v>
       </c>
       <c r="F27">
-        <v>-8.714662551601887</v>
+        <v>-6.03515852014714</v>
       </c>
       <c r="G27">
-        <v>-10.79466255160189</v>
+        <v>-8.355158520147141</v>
       </c>
       <c r="H27">
-        <v>-12.87466255160189</v>
+        <v>-10.67515852014714</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1295,22 +1325,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>-0.016660000000001</v>
+        <v>-0.006520000000001001</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E28">
-        <v>-9.945472571342775</v>
+        <v>-3.679354703184436</v>
       </c>
       <c r="F28">
-        <v>-10.74547257134277</v>
+        <v>-6.239354703184435</v>
       </c>
       <c r="G28">
-        <v>-11.54547257134277</v>
+        <v>-8.799354703184434</v>
       </c>
       <c r="H28">
-        <v>-12.34547257134277</v>
+        <v>-11.35935470318444</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1321,22 +1351,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>-0.01423</v>
+        <v>0.002240000000001</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E29">
-        <v>-8.630263465967149</v>
+        <v>1.407855273767685</v>
       </c>
       <c r="F29">
-        <v>-10.15026346596715</v>
+        <v>-3.712144726232315</v>
       </c>
       <c r="G29">
-        <v>-11.67026346596715</v>
+        <v>-8.832144726232315</v>
       </c>
       <c r="H29">
-        <v>-13.19026346596715</v>
+        <v>-13.95214472623231</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1347,22 +1377,22 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>-0.01953</v>
+        <v>-0.00516</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>-11.39589472921763</v>
+        <v>-2.990351833148366</v>
       </c>
       <c r="F30">
-        <v>-11.87589472921762</v>
+        <v>-6.350351833148366</v>
       </c>
       <c r="G30">
-        <v>-12.35589472921762</v>
+        <v>-9.710351833148366</v>
       </c>
       <c r="H30">
-        <v>-12.83589472921762</v>
+        <v>-13.07035183314837</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1373,22 +1403,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>-0.01967</v>
+        <v>0.013970000000001</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="E31">
-        <v>-11.48244982564445</v>
+        <v>8.243888162061447</v>
       </c>
       <c r="F31">
-        <v>-11.96244982564445</v>
+        <v>-0.7961118379385534</v>
       </c>
       <c r="G31">
-        <v>-12.44244982564445</v>
+        <v>-9.836111837938551</v>
       </c>
       <c r="H31">
-        <v>-12.92244982564445</v>
+        <v>-18.87611183793855</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1399,22 +1429,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>-0.01864</v>
+        <v>-0.011829999999999</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>-11.13000490934946</v>
+        <v>-6.962335342839714</v>
       </c>
       <c r="F32">
-        <v>-11.93000490934946</v>
+        <v>-8.482335342839715</v>
       </c>
       <c r="G32">
-        <v>-12.73000490934946</v>
+        <v>-10.00233534283971</v>
       </c>
       <c r="H32">
-        <v>-13.53000490934946</v>
+        <v>-11.52233534283971</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1425,22 +1455,22 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>-0.010919999999999</v>
+        <v>-0.01368</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>-6.378969716493926</v>
+        <v>-7.892089020193642</v>
       </c>
       <c r="F33">
-        <v>-9.818969716493926</v>
+        <v>-9.012089020193644</v>
       </c>
       <c r="G33">
-        <v>-13.25896971649393</v>
+        <v>-10.13208902019364</v>
       </c>
       <c r="H33">
-        <v>-16.69896971649393</v>
+        <v>-11.25208902019364</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1451,22 +1481,22 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>-0.016269999999998</v>
+        <v>-0.008459999999998</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>-9.562558848871769</v>
+        <v>-5.348736779039985</v>
       </c>
       <c r="F34">
-        <v>-11.72255884887177</v>
+        <v>-7.748736779039987</v>
       </c>
       <c r="G34">
-        <v>-13.88255884887177</v>
+        <v>-10.14873677903999</v>
       </c>
       <c r="H34">
-        <v>-16.04255884887177</v>
+        <v>-12.54873677903998</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1477,22 +1507,22 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>-0.012069999999997</v>
+        <v>-0.011740000000001</v>
       </c>
       <c r="D35">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>-6.841625584987611</v>
+        <v>-6.634662551601889</v>
       </c>
       <c r="F35">
-        <v>-10.60162558498761</v>
+        <v>-8.714662551601888</v>
       </c>
       <c r="G35">
-        <v>-14.36162558498761</v>
+        <v>-10.79466255160189</v>
       </c>
       <c r="H35">
-        <v>-18.12162558498761</v>
+        <v>-12.87466255160189</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1503,22 +1533,22 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>0.006799999999999001</v>
+        <v>-0.016660000000001</v>
       </c>
       <c r="D36">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>4.05060277569478</v>
+        <v>-9.945472571342775</v>
       </c>
       <c r="F36">
-        <v>-5.30939722430522</v>
+        <v>-10.74547257134277</v>
       </c>
       <c r="G36">
-        <v>-14.66939722430522</v>
+        <v>-11.54547257134277</v>
       </c>
       <c r="H36">
-        <v>-24.02939722430522</v>
+        <v>-12.34547257134277</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1529,22 +1559,22 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>-0.01969000000000098</v>
+        <v>-0.01423</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>-11.36692194313062</v>
+        <v>-8.630263465967149</v>
       </c>
       <c r="F37">
-        <v>-13.04692194313062</v>
+        <v>-10.15026346596715</v>
       </c>
       <c r="G37">
-        <v>-14.72692194313062</v>
+        <v>-11.67026346596715</v>
       </c>
       <c r="H37">
-        <v>-16.40692194313062</v>
+        <v>-13.19026346596715</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1555,22 +1585,22 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>-0.014500000000001</v>
+        <v>0.010870000000002</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E38">
-        <v>-8.618328975910302</v>
+        <v>6.713967978391421</v>
       </c>
       <c r="F38">
-        <v>-12.1383289759103</v>
+        <v>-2.646032021608578</v>
       </c>
       <c r="G38">
-        <v>-15.6583289759103</v>
+        <v>-12.00603202160858</v>
       </c>
       <c r="H38">
-        <v>-19.1783289759103</v>
+        <v>-21.36603202160858</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1581,22 +1611,22 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>-0.007709999999998</v>
+        <v>-0.01953</v>
       </c>
       <c r="D39">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>-4.244776166581896</v>
+        <v>-11.39589472921763</v>
       </c>
       <c r="F39">
-        <v>-10.0847761665819</v>
+        <v>-11.87589472921762</v>
       </c>
       <c r="G39">
-        <v>-15.92477616658189</v>
+        <v>-12.35589472921762</v>
       </c>
       <c r="H39">
-        <v>-21.7647761665819</v>
+        <v>-12.83589472921762</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1607,22 +1637,22 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>-0.016209999999998</v>
+        <v>-0.01967</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E40">
-        <v>-9.631061441499106</v>
+        <v>-11.48244982564445</v>
       </c>
       <c r="F40">
-        <v>-12.91106144149911</v>
+        <v>-11.96244982564445</v>
       </c>
       <c r="G40">
-        <v>-16.19106144149911</v>
+        <v>-12.44244982564445</v>
       </c>
       <c r="H40">
-        <v>-19.47106144149911</v>
+        <v>-12.92244982564445</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1633,22 +1663,22 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>-0.014819999999996</v>
+        <v>-0.01864</v>
       </c>
       <c r="D41">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>-8.771953360903378</v>
+        <v>-11.13000490934946</v>
       </c>
       <c r="F41">
-        <v>-12.53195336090338</v>
+        <v>-11.93000490934946</v>
       </c>
       <c r="G41">
-        <v>-16.29195336090338</v>
+        <v>-12.73000490934946</v>
       </c>
       <c r="H41">
-        <v>-20.05195336090338</v>
+        <v>-13.53000490934946</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1659,22 +1689,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>-0.0188</v>
+        <v>-0.009779999999997001</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E42">
-        <v>-10.69594927139974</v>
+        <v>-5.692141759442248</v>
       </c>
       <c r="F42">
-        <v>-13.89594927139974</v>
+        <v>-9.212141759442247</v>
       </c>
       <c r="G42">
-        <v>-17.09594927139974</v>
+        <v>-12.73214175944225</v>
       </c>
       <c r="H42">
-        <v>-20.29594927139974</v>
+        <v>-16.25214175944225</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1685,22 +1715,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>-0.018809999999999</v>
+        <v>-0.002190000000000966</v>
       </c>
       <c r="D43">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E43">
-        <v>-11.45588836231128</v>
+        <v>-0.9610536014533042</v>
       </c>
       <c r="F43">
-        <v>-14.57588836231128</v>
+        <v>-6.881053601453305</v>
       </c>
       <c r="G43">
-        <v>-17.69588836231128</v>
+        <v>-12.8010536014533</v>
       </c>
       <c r="H43">
-        <v>-20.81588836231128</v>
+        <v>-18.7210536014533</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1711,22 +1741,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>-0.003799999999996998</v>
+        <v>-0.012709999999997</v>
       </c>
       <c r="D44">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>-2.49304488114156</v>
+        <v>-7.505800868401765</v>
       </c>
       <c r="F44">
-        <v>-10.25304488114156</v>
+        <v>-10.38580086840176</v>
       </c>
       <c r="G44">
-        <v>-18.01304488114156</v>
+        <v>-13.26580086840177</v>
       </c>
       <c r="H44">
-        <v>-25.77304488114156</v>
+        <v>-16.14580086840176</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1737,22 +1767,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>-0.005969999999996999</v>
+        <v>-0.007949999999999001</v>
       </c>
       <c r="D45">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E45">
-        <v>-3.557311285105826</v>
+        <v>-4.422048862368714</v>
       </c>
       <c r="F45">
-        <v>-10.99731128510583</v>
+        <v>-9.622048862368713</v>
       </c>
       <c r="G45">
-        <v>-18.43731128510582</v>
+        <v>-14.82204886236871</v>
       </c>
       <c r="H45">
-        <v>-25.87731128510582</v>
+        <v>-20.02204886236871</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1763,22 +1793,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>-0.029779999999996</v>
+        <v>-0.01041</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E46">
-        <v>-17.52562151284156</v>
+        <v>-6.088381669008236</v>
       </c>
       <c r="F46">
-        <v>-19.36562151284156</v>
+        <v>-10.56838166900824</v>
       </c>
       <c r="G46">
-        <v>-21.20562151284156</v>
+        <v>-15.04838166900823</v>
       </c>
       <c r="H46">
-        <v>-23.04562151284156</v>
+        <v>-19.52838166900824</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1789,22 +1819,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>0.010410000000001</v>
+        <v>0.003620000000002002</v>
       </c>
       <c r="D47">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="E47">
-        <v>6.298621429825812</v>
+        <v>1.855932329149014</v>
       </c>
       <c r="F47">
-        <v>-7.861378570174189</v>
+        <v>-7.344067670850986</v>
       </c>
       <c r="G47">
-        <v>-22.02137857017419</v>
+        <v>-16.54406767085099</v>
       </c>
       <c r="H47">
-        <v>-36.18137857017418</v>
+        <v>-25.74406767085098</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1815,22 +1845,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>-0.008079999999997986</v>
+        <v>-0.015289999999998</v>
       </c>
       <c r="D48">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E48">
-        <v>-5.203292348712878</v>
+        <v>-9.108877703355697</v>
       </c>
       <c r="F48">
-        <v>-13.76329234871288</v>
+        <v>-13.1088777033557</v>
       </c>
       <c r="G48">
-        <v>-22.32329234871288</v>
+        <v>-17.1088777033557</v>
       </c>
       <c r="H48">
-        <v>-30.88329234871287</v>
+        <v>-21.1088777033557</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1841,22 +1871,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>0.0004400000000030005</v>
+        <v>-0.013810000000002</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E49">
-        <v>0.6328992396090882</v>
+        <v>-8.210907716681376</v>
       </c>
       <c r="F49">
-        <v>-11.36710076039091</v>
+        <v>-12.85090771668138</v>
       </c>
       <c r="G49">
-        <v>-23.36710076039091</v>
+        <v>-17.49090771668137</v>
       </c>
       <c r="H49">
-        <v>-35.36710076039091</v>
+        <v>-22.13090771668137</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1867,22 +1897,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>-0.017759999999995</v>
+        <v>-0.01674</v>
       </c>
       <c r="D50">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E50">
-        <v>-10.18315848255481</v>
+        <v>-10.24581890990712</v>
       </c>
       <c r="F50">
-        <v>-17.4631584825548</v>
+        <v>-14.48581890990712</v>
       </c>
       <c r="G50">
-        <v>-24.74315848255481</v>
+        <v>-18.72581890990712</v>
       </c>
       <c r="H50">
-        <v>-32.02315848255481</v>
+        <v>-22.96581890990712</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1893,22 +1923,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>-0.0216</v>
+        <v>-0.004209999999997999</v>
       </c>
       <c r="D51">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E51">
-        <v>-12.51242607398024</v>
+        <v>-2.526524628862743</v>
       </c>
       <c r="F51">
-        <v>-18.99242607398024</v>
+        <v>-10.68652462886274</v>
       </c>
       <c r="G51">
-        <v>-25.47242607398024</v>
+        <v>-18.84652462886274</v>
       </c>
       <c r="H51">
-        <v>-31.95242607398025</v>
+        <v>-27.00652462886274</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1919,22 +1949,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>-0.03209999999999699</v>
+        <v>-0.024419999999997</v>
       </c>
       <c r="D52">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>-19.7372512617334</v>
+        <v>-14.41691171461136</v>
       </c>
       <c r="F52">
-        <v>-25.0972512617334</v>
+        <v>-16.97691171461137</v>
       </c>
       <c r="G52">
-        <v>-30.4572512617334</v>
+        <v>-19.53691171461137</v>
       </c>
       <c r="H52">
-        <v>-35.8172512617334</v>
+        <v>-22.09691171461137</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1945,22 +1975,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>0.00282</v>
+        <v>-0.01895</v>
       </c>
       <c r="D53">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="E53">
-        <v>1.175804691608378</v>
+        <v>-10.78990829736935</v>
       </c>
       <c r="F53">
-        <v>-14.82419530839162</v>
+        <v>-15.18990829736935</v>
       </c>
       <c r="G53">
-        <v>-30.82419530839161</v>
+        <v>-19.58990829736935</v>
       </c>
       <c r="H53">
-        <v>-46.82419530839162</v>
+        <v>-23.98990829736935</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1971,22 +2001,22 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>-0.008429999999999998</v>
+        <v>-0.010579999999996</v>
       </c>
       <c r="D54">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="E54">
-        <v>-4.977957817633947</v>
+        <v>-5.920587160727421</v>
       </c>
       <c r="F54">
-        <v>-18.57795781763395</v>
+        <v>-13.68058716072742</v>
       </c>
       <c r="G54">
-        <v>-32.17795781763395</v>
+        <v>-21.44058716072742</v>
       </c>
       <c r="H54">
-        <v>-45.77795781763395</v>
+        <v>-29.20058716072742</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1997,22 +2027,22 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0.002359999999999999</v>
+        <v>-0.020749999999996</v>
       </c>
       <c r="D55">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="E55">
-        <v>0.9483631137198847</v>
+        <v>-12.23758013068855</v>
       </c>
       <c r="F55">
-        <v>-17.77163688628012</v>
+        <v>-17.03758013068856</v>
       </c>
       <c r="G55">
-        <v>-36.49163688628011</v>
+        <v>-21.83758013068855</v>
       </c>
       <c r="H55">
-        <v>-55.21163688628012</v>
+        <v>-26.63758013068855</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2023,22 +2053,22 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>-0.039139999999997</v>
+        <v>-0.001849999999999989</v>
       </c>
       <c r="D56">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="E56">
-        <v>-22.85505930850791</v>
+        <v>-1.562235821614934</v>
       </c>
       <c r="F56">
-        <v>-39.1750593085079</v>
+        <v>-12.20223582161493</v>
       </c>
       <c r="G56">
-        <v>-55.4950593085079</v>
+        <v>-22.84223582161493</v>
       </c>
       <c r="H56">
-        <v>-71.81505930850791</v>
+        <v>-33.48223582161493</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2049,22 +2079,22 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>-0.02355999999999803</v>
+        <v>0.005600000000004001</v>
       </c>
       <c r="D57">
-        <v>476</v>
+        <v>191</v>
       </c>
       <c r="E57">
-        <v>-13.96842059367733</v>
+        <v>3.631286334779436</v>
       </c>
       <c r="F57">
-        <v>-52.04842059367734</v>
+        <v>-11.64871366522057</v>
       </c>
       <c r="G57">
-        <v>-90.12842059367732</v>
+        <v>-26.92871366522056</v>
       </c>
       <c r="H57">
-        <v>-128.2084205936773</v>
+        <v>-42.20871366522056</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2075,26 +2105,286 @@
         <v>63</v>
       </c>
       <c r="C58">
+        <v>0.007420000000000001</v>
+      </c>
+      <c r="D58">
+        <v>197</v>
+      </c>
+      <c r="E58">
+        <v>4.419643943451803</v>
+      </c>
+      <c r="F58">
+        <v>-11.3403560565482</v>
+      </c>
+      <c r="G58">
+        <v>-27.10035605654819</v>
+      </c>
+      <c r="H58">
+        <v>-42.8603560565482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>0.009560000000001</v>
+      </c>
+      <c r="D59">
+        <v>212</v>
+      </c>
+      <c r="E59">
+        <v>5.799472918462843</v>
+      </c>
+      <c r="F59">
+        <v>-11.16052708153716</v>
+      </c>
+      <c r="G59">
+        <v>-28.12052708153716</v>
+      </c>
+      <c r="H59">
+        <v>-45.08052708153715</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>-0.02008</v>
+      </c>
+      <c r="D60">
+        <v>106</v>
+      </c>
+      <c r="E60">
+        <v>-11.60223588760709</v>
+      </c>
+      <c r="F60">
+        <v>-20.08223588760709</v>
+      </c>
+      <c r="G60">
+        <v>-28.56223588760709</v>
+      </c>
+      <c r="H60">
+        <v>-37.04223588760709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>-0.023019999999996</v>
+      </c>
+      <c r="D61">
+        <v>117</v>
+      </c>
+      <c r="E61">
+        <v>-13.25327226174912</v>
+      </c>
+      <c r="F61">
+        <v>-22.61327226174912</v>
+      </c>
+      <c r="G61">
+        <v>-31.97327226174912</v>
+      </c>
+      <c r="H61">
+        <v>-41.33327226174912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62">
+        <v>-0.031019999999998</v>
+      </c>
+      <c r="D62">
+        <v>98</v>
+      </c>
+      <c r="E62">
+        <v>-19.11122224799236</v>
+      </c>
+      <c r="F62">
+        <v>-26.95122224799237</v>
+      </c>
+      <c r="G62">
+        <v>-34.79122224799237</v>
+      </c>
+      <c r="H62">
+        <v>-42.63122224799236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>0.004410000000000001</v>
+      </c>
+      <c r="D63">
+        <v>241</v>
+      </c>
+      <c r="E63">
+        <v>2.09104622186863</v>
+      </c>
+      <c r="F63">
+        <v>-17.18895377813137</v>
+      </c>
+      <c r="G63">
+        <v>-36.46895377813136</v>
+      </c>
+      <c r="H63">
+        <v>-55.74895377813137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>-0.01306</v>
+      </c>
+      <c r="D64">
+        <v>209</v>
+      </c>
+      <c r="E64">
+        <v>-7.675477162151099</v>
+      </c>
+      <c r="F64">
+        <v>-24.3954771621511</v>
+      </c>
+      <c r="G64">
+        <v>-41.11547716215109</v>
+      </c>
+      <c r="H64">
+        <v>-57.83547716215109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="D65">
+        <v>321</v>
+      </c>
+      <c r="E65">
+        <v>3.673660971178459</v>
+      </c>
+      <c r="F65">
+        <v>-22.00633902882155</v>
+      </c>
+      <c r="G65">
+        <v>-47.68633902882154</v>
+      </c>
+      <c r="H65">
+        <v>-73.36633902882154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <v>-0.041849999999998</v>
+      </c>
+      <c r="D66">
+        <v>295</v>
+      </c>
+      <c r="E66">
+        <v>-24.45379217700808</v>
+      </c>
+      <c r="F66">
+        <v>-48.05379217700808</v>
+      </c>
+      <c r="G66">
+        <v>-71.65379217700807</v>
+      </c>
+      <c r="H66">
+        <v>-95.25379217700808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67">
+        <v>-0.02355999999999803</v>
+      </c>
+      <c r="D67">
+        <v>476</v>
+      </c>
+      <c r="E67">
+        <v>-13.96842059367733</v>
+      </c>
+      <c r="F67">
+        <v>-52.04842059367734</v>
+      </c>
+      <c r="G67">
+        <v>-90.12842059367733</v>
+      </c>
+      <c r="H67">
+        <v>-128.2084205936773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68">
         <v>-0.021639999999998</v>
       </c>
-      <c r="D58">
+      <c r="D68">
         <v>971</v>
       </c>
-      <c r="E58">
+      <c r="E68">
         <v>-12.17642148456993</v>
       </c>
-      <c r="F58">
-        <v>-89.85642148456992</v>
-      </c>
-      <c r="G58">
+      <c r="F68">
+        <v>-89.85642148456994</v>
+      </c>
+      <c r="G68">
         <v>-167.5364214845699</v>
       </c>
-      <c r="H58">
+      <c r="H68">
         <v>-245.2164214845699</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B58">
+  <conditionalFormatting sqref="B2:B68">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2109,7 +2399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C58">
+  <conditionalFormatting sqref="C2:C68">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2124,7 +2414,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D58">
+  <conditionalFormatting sqref="D2:D68">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2139,7 +2429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E58">
+  <conditionalFormatting sqref="E2:E68">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2154,7 +2444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F58">
+  <conditionalFormatting sqref="F2:F68">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2169,7 +2459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G58">
+  <conditionalFormatting sqref="G2:G68">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2184,7 +2474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H58">
+  <conditionalFormatting sqref="H2:H68">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
